--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>38.09603014391673</v>
+        <v>64.59761633098924</v>
       </c>
       <c r="C2">
-        <v>2.075573399243539</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="D2">
-        <v>10.19522259108328</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="E2">
-        <v>12.84482704373898</v>
+        <v>21.78035890025306</v>
       </c>
       <c r="F2">
-        <v>16.90955510461346</v>
+        <v>28.67272387304022</v>
       </c>
       <c r="G2">
-        <v>61.97599872976527</v>
+        <v>105.0897369765585</v>
       </c>
       <c r="H2">
-        <v>1.010533106263531</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="I2">
-        <v>143.1077401186248</v>
+        <v>242.660950635929</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>45.70840892715457</v>
+        <v>77.50556296343606</v>
       </c>
       <c r="C3">
-        <v>5.000245007268526</v>
+        <v>8.47867631667272</v>
       </c>
       <c r="D3">
-        <v>19.15466062567163</v>
+        <v>32.47964193048667</v>
       </c>
       <c r="E3">
-        <v>5.639192360665893</v>
+        <v>9.56210878547695</v>
       </c>
       <c r="F3">
-        <v>13.73364881592972</v>
+        <v>23.28749147048952</v>
       </c>
       <c r="G3">
-        <v>20.31435513920084</v>
+        <v>34.4460804534275</v>
       </c>
       <c r="H3">
-        <v>2.357910581281573</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="I3">
-        <v>111.9084214571728</v>
+        <v>189.7577581230321</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>49.122031699907</v>
+        <v>83.29387983897271</v>
       </c>
       <c r="C4">
-        <v>5.188933498108848</v>
+        <v>8.798626366358482</v>
       </c>
       <c r="D4">
-        <v>17.60992993005295</v>
+        <v>29.86031596835065</v>
       </c>
       <c r="E4">
-        <v>4.0727500382587</v>
+        <v>6.905967456177796</v>
       </c>
       <c r="F4">
-        <v>14.67783717202488</v>
+        <v>24.88850650908568</v>
       </c>
       <c r="G4">
-        <v>18.93711072298384</v>
+        <v>32.11075296505955</v>
       </c>
       <c r="H4">
-        <v>2.189488396904317</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="I4">
-        <v>111.7980814582405</v>
+        <v>189.570659863973</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>48.30276223444639</v>
+        <v>81.9046837888439</v>
       </c>
       <c r="C5">
-        <v>4.622868025587884</v>
+        <v>7.838776217301193</v>
       </c>
       <c r="D5">
-        <v>15.75625309531054</v>
+        <v>26.71712481378742</v>
       </c>
       <c r="E5">
-        <v>5.95248082514733</v>
+        <v>10.09333705133678</v>
       </c>
       <c r="F5">
-        <v>17.33873163011127</v>
+        <v>29.40045798149302</v>
       </c>
       <c r="G5">
-        <v>19.62573293109233</v>
+        <v>33.27841670924352</v>
       </c>
       <c r="H5">
-        <v>2.189488396904317</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="I5">
-        <v>113.7883171386001</v>
+        <v>192.945407321974</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>49.8730287099125</v>
+        <v>84.56730955159078</v>
       </c>
       <c r="C6">
-        <v>5.000245007268526</v>
+        <v>8.47867631667272</v>
       </c>
       <c r="D6">
-        <v>19.7725529039191</v>
+        <v>33.52737231534108</v>
       </c>
       <c r="E6">
-        <v>5.95248082514733</v>
+        <v>10.09333705133678</v>
       </c>
       <c r="F6">
-        <v>15.10701369752269</v>
+        <v>25.61624061753847</v>
       </c>
       <c r="G6">
-        <v>15.83831078649557</v>
+        <v>26.85626611623161</v>
       </c>
       <c r="H6">
-        <v>1.515799659395296</v>
+        <v>2.570268987670286</v>
       </c>
       <c r="I6">
-        <v>113.059431589661</v>
+        <v>191.7094709563817</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>51.06779668037586</v>
+        <v>86.59322045802858</v>
       </c>
       <c r="C7">
-        <v>4.528523780167722</v>
+        <v>7.678801192458312</v>
       </c>
       <c r="D7">
-        <v>21.62622973866152</v>
+        <v>36.6705634699043</v>
       </c>
       <c r="E7">
-        <v>9.085365469961717</v>
+        <v>15.40561970993508</v>
       </c>
       <c r="F7">
-        <v>12.96113107003367</v>
+        <v>21.97757007527449</v>
       </c>
       <c r="G7">
-        <v>13.42813305811581</v>
+        <v>22.76944301158766</v>
       </c>
       <c r="H7">
-        <v>2.357910581281573</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="I7">
-        <v>115.0550903785979</v>
+        <v>195.0934141202311</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>56.32477575041457</v>
+        <v>95.50722844635507</v>
       </c>
       <c r="C8">
-        <v>4.905900761848365</v>
+        <v>8.318701291829838</v>
       </c>
       <c r="D8">
-        <v>18.84571448654789</v>
+        <v>31.95577673805947</v>
       </c>
       <c r="E8">
-        <v>10.96509625685035</v>
+        <v>18.59298930509407</v>
       </c>
       <c r="F8">
-        <v>12.78946045983455</v>
+        <v>21.68647643189336</v>
       </c>
       <c r="G8">
-        <v>8.607777601356284</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="H8">
-        <v>4.042132425054124</v>
+        <v>6.854050633787428</v>
       </c>
       <c r="I8">
-        <v>116.4808577419061</v>
+        <v>197.5110196493191</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>62.53756919682392</v>
+        <v>106.0419651598318</v>
       </c>
       <c r="C9">
-        <v>3.20770434428547</v>
+        <v>5.439150844657971</v>
       </c>
       <c r="D9">
-        <v>14.52046853881559</v>
+        <v>24.62166404407862</v>
       </c>
       <c r="E9">
-        <v>16.91757708199768</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="F9">
-        <v>12.44611923943631</v>
+        <v>21.10428914513113</v>
       </c>
       <c r="G9">
-        <v>7.230533185139279</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="H9">
-        <v>1.010533106263531</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="I9">
-        <v>117.8705046927618</v>
+        <v>199.8673775225091</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>60.7283491272651</v>
+        <v>102.9741572157974</v>
       </c>
       <c r="C10">
-        <v>2.075573399243539</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="D10">
-        <v>12.0488994258257</v>
+        <v>20.43074250466097</v>
       </c>
       <c r="E10">
-        <v>22.55676944266357</v>
+        <v>38.2484351419078</v>
       </c>
       <c r="F10">
-        <v>6.695153797765736</v>
+        <v>11.35265209186364</v>
       </c>
       <c r="G10">
-        <v>6.197599872976525</v>
+        <v>10.50897369765585</v>
       </c>
       <c r="H10">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I10">
-        <v>110.4707672501174</v>
+        <v>187.3199966415035</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>42.80682957031505</v>
+        <v>72.58549361922985</v>
       </c>
       <c r="C11">
-        <v>1.792540662983057</v>
+        <v>3.039525472014748</v>
       </c>
       <c r="D11">
-        <v>10.50416873020702</v>
+        <v>17.81141654252495</v>
       </c>
       <c r="E11">
-        <v>17.54415401096056</v>
+        <v>29.74878288815052</v>
       </c>
       <c r="F11">
-        <v>3.43341220398243</v>
+        <v>5.82187286762238</v>
       </c>
       <c r="G11">
-        <v>3.787422144596765</v>
+        <v>6.42215059301191</v>
       </c>
       <c r="H11">
-        <v>0.5052665531317655</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="I11">
-        <v>80.37379387617663</v>
+        <v>136.2859983117778</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>36.28681007435797</v>
+        <v>61.5298083869548</v>
       </c>
       <c r="C12">
-        <v>3.773769816806436</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="D12">
-        <v>7.105761199845928</v>
+        <v>12.0488994258257</v>
       </c>
       <c r="E12">
-        <v>14.72455783062761</v>
+        <v>24.96772849541203</v>
       </c>
       <c r="F12">
-        <v>3.261741593783307</v>
+        <v>5.530779224241261</v>
       </c>
       <c r="G12">
-        <v>5.853288768922274</v>
+        <v>9.925141825563855</v>
       </c>
       <c r="H12">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I12">
-        <v>71.17435146872077</v>
+        <v>120.6869437947874</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>29.11820225157792</v>
+        <v>49.37434294832779</v>
       </c>
       <c r="C13">
-        <v>2.830327362604826</v>
+        <v>4.799250745286445</v>
       </c>
       <c r="D13">
-        <v>5.561030504227247</v>
+        <v>9.429573463689678</v>
       </c>
       <c r="E13">
-        <v>12.53153857925754</v>
+        <v>21.24913063439322</v>
       </c>
       <c r="F13">
-        <v>1.888376712190336</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="G13">
-        <v>3.787422144596765</v>
+        <v>6.42215059301191</v>
       </c>
       <c r="H13">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I13">
-        <v>56.05374192320915</v>
+        <v>95.0476493480503</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>22.086139339708</v>
+        <v>37.45041018472227</v>
       </c>
       <c r="C14">
-        <v>3.20770434428547</v>
+        <v>5.439150844657971</v>
       </c>
       <c r="D14">
-        <v>4.63419208685604</v>
+        <v>7.857977886408064</v>
       </c>
       <c r="E14">
-        <v>4.0727500382587</v>
+        <v>6.905967456177796</v>
       </c>
       <c r="F14">
-        <v>1.201694271393851</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="G14">
-        <v>2.410177728379761</v>
+        <v>4.08682310464394</v>
       </c>
       <c r="H14">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I14">
-        <v>37.78107999325908</v>
+        <v>64.06357042335236</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>13.8251722296472</v>
+        <v>23.44268334592352</v>
       </c>
       <c r="C15">
-        <v>2.075573399243539</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="D15">
-        <v>3.70735366948483</v>
+        <v>6.286382309126453</v>
       </c>
       <c r="E15">
-        <v>2.819596180332947</v>
+        <v>4.781054392738475</v>
       </c>
       <c r="F15">
-        <v>1.974212017289896</v>
+        <v>3.347576898882868</v>
       </c>
       <c r="G15">
-        <v>4.131733248651016</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="H15">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I15">
-        <v>28.70206292902669</v>
+        <v>48.66871540139308</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>10.37741322916729</v>
+        <v>17.59648330163148</v>
       </c>
       <c r="C16">
-        <v>2.924671608024987</v>
+        <v>4.959225770129326</v>
       </c>
       <c r="D16">
-        <v>1.853676834742415</v>
+        <v>3.143191154563227</v>
       </c>
       <c r="E16">
-        <v>0.9398653934443156</v>
+        <v>1.593684797579491</v>
       </c>
       <c r="F16">
-        <v>0.7725177458960465</v>
+        <v>1.309921395215036</v>
       </c>
       <c r="G16">
-        <v>2.754488832434012</v>
+        <v>4.670654976735934</v>
       </c>
       <c r="H16">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I16">
-        <v>19.79105582808632</v>
+        <v>33.55874683892897</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>6.62242817913965</v>
+        <v>11.22933473854114</v>
       </c>
       <c r="C17">
-        <v>3.302048589705631</v>
+        <v>5.599125869500852</v>
       </c>
       <c r="E17">
-        <v>0.3132884644814386</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="F17">
-        <v>1.630870796891654</v>
+        <v>2.765389612120631</v>
       </c>
       <c r="G17">
-        <v>2.754488832434012</v>
+        <v>4.670654976735934</v>
       </c>
       <c r="H17">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I17">
-        <v>14.79154704702964</v>
+        <v>25.08131890583286</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>3.959802416392779</v>
+        <v>6.714447575622538</v>
       </c>
       <c r="C18">
-        <v>2.735983117184665</v>
+        <v>4.639275720443563</v>
       </c>
       <c r="D18">
-        <v>1.853676834742415</v>
+        <v>3.143191154563227</v>
       </c>
       <c r="F18">
-        <v>1.201694271393851</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="G18">
-        <v>4.820355456759522</v>
+        <v>8.173646209287881</v>
       </c>
       <c r="I18">
-        <v>14.57151209647323</v>
+        <v>24.70821616358504</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>4.91561679276345</v>
+        <v>8.335176300772808</v>
       </c>
       <c r="C19">
-        <v>1.792540662983057</v>
+        <v>3.039525472014748</v>
       </c>
       <c r="D19">
-        <v>1.544730695618679</v>
+        <v>2.619325962136021</v>
       </c>
       <c r="E19">
-        <v>1.253153857925754</v>
+        <v>2.124913063439322</v>
       </c>
       <c r="F19">
-        <v>1.201694271393851</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="G19">
-        <v>5.853288768922274</v>
+        <v>9.925141825563855</v>
       </c>
       <c r="I19">
-        <v>16.56102504960707</v>
+        <v>28.08173812759459</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>8.124422199150699</v>
+        <v>13.77619416377727</v>
       </c>
       <c r="C20">
-        <v>1.603852172142735</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="D20">
-        <v>3.089461391237358</v>
+        <v>5.238651924272043</v>
       </c>
       <c r="E20">
-        <v>0.6265769289628772</v>
+        <v>1.062456531719661</v>
       </c>
       <c r="F20">
-        <v>2.060047322389457</v>
+        <v>3.493123720573428</v>
       </c>
       <c r="G20">
-        <v>7.230533185139279</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="I20">
-        <v>22.73489319902241</v>
+        <v>38.55047107660322</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>18.3994267451354</v>
+        <v>31.19902795914266</v>
       </c>
       <c r="C21">
-        <v>1.792540662983057</v>
+        <v>3.039525472014748</v>
       </c>
       <c r="D21">
-        <v>7.105761199845928</v>
+        <v>12.0488994258257</v>
       </c>
       <c r="E21">
-        <v>8.145500076517401</v>
+        <v>13.81193491235559</v>
       </c>
       <c r="F21">
-        <v>5.150118305973644</v>
+        <v>8.732809301433569</v>
       </c>
       <c r="G21">
-        <v>11.3622664337903</v>
+        <v>19.26645177903572</v>
       </c>
       <c r="H21">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I21">
-        <v>52.12403560862299</v>
+        <v>88.38423429288248</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>33.93141036115883</v>
+        <v>57.53586974283451</v>
       </c>
       <c r="C22">
-        <v>1.981229153823378</v>
+        <v>3.359475521700511</v>
       </c>
       <c r="D22">
-        <v>12.66679170407317</v>
+        <v>21.47847288951538</v>
       </c>
       <c r="E22">
-        <v>29.13582719677378</v>
+        <v>49.40422872496426</v>
       </c>
       <c r="F22">
-        <v>8.841036425254755</v>
+        <v>14.99132263412763</v>
       </c>
       <c r="G22">
-        <v>18.59279961892958</v>
+        <v>31.52692109296754</v>
       </c>
       <c r="H22">
-        <v>0.6736887375090209</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="I22">
-        <v>105.8227831975225</v>
+        <v>179.4386323784077</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>47.75658259080604</v>
+        <v>80.97855308875803</v>
       </c>
       <c r="C23">
-        <v>1.226475190462091</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="D23">
-        <v>10.19522259108328</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="E23">
-        <v>22.87005790714501</v>
+        <v>38.77966340776763</v>
       </c>
       <c r="F23">
-        <v>10.21440130684773</v>
+        <v>17.32007178117658</v>
       </c>
       <c r="G23">
-        <v>18.59279961892958</v>
+        <v>31.52692109296754</v>
       </c>
       <c r="H23">
-        <v>1.178955290640787</v>
+        <v>1.999098101521333</v>
       </c>
       <c r="I23">
-        <v>112.0344944959145</v>
+        <v>189.9715341452463</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>58.37294941406596</v>
+        <v>98.98021857167707</v>
       </c>
       <c r="C24">
-        <v>2.641638871764505</v>
+        <v>4.479300695600682</v>
       </c>
       <c r="D24">
-        <v>16.68309151268174</v>
+        <v>28.28872039106904</v>
       </c>
       <c r="E24">
-        <v>12.2182501147761</v>
+        <v>20.71790236853339</v>
       </c>
       <c r="F24">
-        <v>12.27444862923718</v>
+        <v>20.81319550175001</v>
       </c>
       <c r="G24">
-        <v>26.85626611623161</v>
+        <v>45.53888602317533</v>
       </c>
       <c r="H24">
-        <v>1.515799659395296</v>
+        <v>2.570268987670286</v>
       </c>
       <c r="I24">
-        <v>130.5624443181524</v>
+        <v>221.3884925394758</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>43.96746131305088</v>
+        <v>74.55352135691237</v>
       </c>
       <c r="C25">
-        <v>1.698196417562896</v>
+        <v>2.879550447171867</v>
       </c>
       <c r="D25">
-        <v>15.75625309531054</v>
+        <v>26.71712481378742</v>
       </c>
       <c r="E25">
-        <v>26.00294255195939</v>
+        <v>44.09194606636594</v>
       </c>
       <c r="F25">
-        <v>13.90531942612884</v>
+        <v>23.57858511387064</v>
       </c>
       <c r="G25">
-        <v>43.03888800678143</v>
+        <v>72.97898401149895</v>
       </c>
       <c r="H25">
-        <v>3.031599318790593</v>
+        <v>5.140537975340572</v>
       </c>
       <c r="I25">
-        <v>147.4006601295846</v>
+        <v>249.9402497849478</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>37.34503313391122</v>
+        <v>63.32418661837122</v>
       </c>
       <c r="C26">
-        <v>1.603852172142735</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="D26">
-        <v>14.82941467793932</v>
+        <v>25.14552923650581</v>
       </c>
       <c r="E26">
-        <v>12.53153857925754</v>
+        <v>21.24913063439322</v>
       </c>
       <c r="F26">
-        <v>16.48037857911566</v>
+        <v>27.94498976458743</v>
       </c>
       <c r="G26">
-        <v>67.48497639463326</v>
+        <v>114.4310469300304</v>
       </c>
       <c r="H26">
-        <v>1.178955290640787</v>
+        <v>1.999098101521333</v>
       </c>
       <c r="I26">
-        <v>151.4541488276406</v>
+        <v>256.8135567077384</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>44.78673077851144</v>
+        <v>75.94271740704114</v>
       </c>
       <c r="C27">
-        <v>3.868114062226596</v>
+        <v>6.55897601855814</v>
       </c>
       <c r="D27">
-        <v>27.4962063820125</v>
+        <v>46.62400212602119</v>
       </c>
       <c r="E27">
-        <v>5.325903896184456</v>
+        <v>9.030880519617121</v>
       </c>
       <c r="F27">
-        <v>13.39030759553147</v>
+        <v>22.70530418372728</v>
       </c>
       <c r="G27">
-        <v>22.0359106594721</v>
+        <v>37.36523981388747</v>
       </c>
       <c r="H27">
-        <v>2.526332765658827</v>
+        <v>4.283781646117143</v>
       </c>
       <c r="I27">
-        <v>119.4295061395974</v>
+        <v>202.5109017149695</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>48.13208109580877</v>
+        <v>81.61526794506706</v>
       </c>
       <c r="C28">
-        <v>3.962458307646756</v>
+        <v>6.718951043401023</v>
       </c>
       <c r="D28">
-        <v>25.33358340814634</v>
+        <v>42.95694577903075</v>
       </c>
       <c r="E28">
-        <v>4.0727500382587</v>
+        <v>6.905967456177796</v>
       </c>
       <c r="F28">
-        <v>14.33449595162664</v>
+        <v>24.30631922232344</v>
       </c>
       <c r="G28">
-        <v>20.65866624325509</v>
+        <v>35.0299123255195</v>
       </c>
       <c r="H28">
-        <v>2.357910581281573</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="I28">
-        <v>118.8519456260239</v>
+        <v>201.5315599745622</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>47.34694785807573</v>
+        <v>80.28395506369364</v>
       </c>
       <c r="C29">
-        <v>3.585081325966113</v>
+        <v>6.079050944029497</v>
       </c>
       <c r="D29">
-        <v>22.55306815603272</v>
+        <v>38.24215904718593</v>
       </c>
       <c r="E29">
-        <v>5.639192360665893</v>
+        <v>9.56210878547695</v>
       </c>
       <c r="F29">
-        <v>16.90955510461346</v>
+        <v>28.67272387304022</v>
       </c>
       <c r="G29">
-        <v>21.34728845136359</v>
+        <v>36.19757606970347</v>
       </c>
       <c r="H29">
-        <v>2.357910581281573</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="I29">
-        <v>119.7390438379991</v>
+        <v>203.0357699861723</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>48.88307810581433</v>
+        <v>82.88869765768513</v>
       </c>
       <c r="C30">
-        <v>3.868114062226596</v>
+        <v>6.55897601855814</v>
       </c>
       <c r="D30">
-        <v>28.42304479938371</v>
+        <v>48.19559770330282</v>
       </c>
       <c r="E30">
-        <v>5.639192360665893</v>
+        <v>9.56210878547695</v>
       </c>
       <c r="F30">
-        <v>14.76367247712444</v>
+        <v>25.03405333077623</v>
       </c>
       <c r="G30">
-        <v>17.21555520271257</v>
+        <v>29.19159360459958</v>
       </c>
       <c r="H30">
-        <v>1.684221843772552</v>
+        <v>2.855854430744762</v>
       </c>
       <c r="I30">
-        <v>120.4768788517001</v>
+        <v>204.2868815311436</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>50.04370984855012</v>
+        <v>84.85672539536759</v>
       </c>
       <c r="C31">
-        <v>3.490737080545952</v>
+        <v>5.919075919186615</v>
       </c>
       <c r="D31">
-        <v>31.20356005149733</v>
+        <v>52.91038443514766</v>
       </c>
       <c r="E31">
-        <v>8.772077005480281</v>
+        <v>14.87439144407526</v>
       </c>
       <c r="F31">
-        <v>12.61778984963543</v>
+        <v>21.39538278851225</v>
       </c>
       <c r="G31">
-        <v>14.46106637027856</v>
+        <v>24.52093862786365</v>
       </c>
       <c r="H31">
-        <v>2.526332765658827</v>
+        <v>4.283781646117143</v>
       </c>
       <c r="I31">
-        <v>123.1152729716465</v>
+        <v>208.7606802562701</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>55.19828023540624</v>
+        <v>93.59708387742796</v>
       </c>
       <c r="C32">
-        <v>3.773769816806436</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="D32">
-        <v>27.18726024288876</v>
+        <v>46.100136933594</v>
       </c>
       <c r="E32">
-        <v>10.65180779236891</v>
+        <v>18.06176103923424</v>
       </c>
       <c r="F32">
-        <v>12.44611923943631</v>
+        <v>21.10428914513113</v>
       </c>
       <c r="G32">
-        <v>9.296399809464789</v>
+        <v>15.76346054648377</v>
       </c>
       <c r="H32">
-        <v>4.378976793808635</v>
+        <v>7.425221519936382</v>
       </c>
       <c r="I32">
-        <v>122.9326139301801</v>
+        <v>208.4509540555227</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>61.27452877090551</v>
+        <v>103.9002879158833</v>
       </c>
       <c r="C33">
-        <v>2.452950380924182</v>
+        <v>4.159350645914919</v>
       </c>
       <c r="D33">
-        <v>21.00833746041404</v>
+        <v>35.6228330850499</v>
       </c>
       <c r="E33">
-        <v>16.2910001530348</v>
+        <v>27.62386982471118</v>
       </c>
       <c r="F33">
-        <v>12.10277801903806</v>
+        <v>20.52210185836888</v>
       </c>
       <c r="G33">
-        <v>7.919155393247785</v>
+        <v>13.42813305811581</v>
       </c>
       <c r="H33">
-        <v>1.178955290640787</v>
+        <v>1.999098101521333</v>
       </c>
       <c r="I33">
-        <v>122.2277054682052</v>
+        <v>207.2556744895653</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>59.49944492907424</v>
+        <v>100.8903631406042</v>
       </c>
       <c r="C34">
-        <v>1.603852172142735</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="D34">
-        <v>17.30098379092922</v>
+        <v>29.33645077592344</v>
       </c>
       <c r="E34">
-        <v>21.9301925137007</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="F34">
-        <v>6.523483187566614</v>
+        <v>11.06155844848252</v>
       </c>
       <c r="G34">
-        <v>6.88622208108503</v>
+        <v>11.67663744183983</v>
       </c>
       <c r="H34">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I34">
-        <v>113.9126008588758</v>
+        <v>193.1561492824416</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>41.95342387712696</v>
+        <v>71.13841440034571</v>
       </c>
       <c r="C35">
-        <v>1.415163681302413</v>
+        <v>2.399625372643222</v>
       </c>
       <c r="D35">
-        <v>15.13836081706306</v>
+        <v>25.66939442893302</v>
       </c>
       <c r="E35">
-        <v>16.91757708199768</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="F35">
-        <v>3.347576898882868</v>
+        <v>5.67632604593182</v>
       </c>
       <c r="G35">
-        <v>4.131733248651016</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="H35">
-        <v>0.5052665531317655</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="I35">
-        <v>83.40910215815575</v>
+        <v>141.432825398612</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>35.56994929207997</v>
+        <v>60.31426184309213</v>
       </c>
       <c r="C36">
-        <v>2.924671608024987</v>
+        <v>4.959225770129326</v>
       </c>
       <c r="D36">
-        <v>10.19522259108328</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="E36">
-        <v>14.41126936614617</v>
+        <v>24.43650022955221</v>
       </c>
       <c r="F36">
-        <v>3.175906288683747</v>
+        <v>5.385232402550701</v>
       </c>
       <c r="G36">
-        <v>6.541910977030779</v>
+        <v>11.09280556974784</v>
       </c>
       <c r="H36">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I36">
-        <v>72.98735230742619</v>
+        <v>123.7611626082444</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>28.53788638021002</v>
+        <v>48.3903290794866</v>
       </c>
       <c r="C37">
-        <v>2.169917644663701</v>
+        <v>3.679425571386274</v>
       </c>
       <c r="D37">
-        <v>8.032599617217134</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="E37">
-        <v>12.2182501147761</v>
+        <v>20.71790236853339</v>
       </c>
       <c r="F37">
-        <v>1.802541407090775</v>
+        <v>3.05648325550175</v>
       </c>
       <c r="G37">
-        <v>4.131733248651016</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="H37">
-        <v>0.3368443687545105</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I37">
-        <v>57.22977278136327</v>
+        <v>97.04178862926817</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>21.64236837925019</v>
+        <v>36.69792899090249</v>
       </c>
       <c r="C38">
-        <v>2.452950380924182</v>
+        <v>4.159350645914919</v>
       </c>
       <c r="D38">
-        <v>6.79681506072219</v>
+        <v>11.5250342333985</v>
       </c>
       <c r="E38">
-        <v>4.0727500382587</v>
+        <v>6.905967456177796</v>
       </c>
       <c r="F38">
-        <v>1.201694271393851</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="G38">
-        <v>2.754488832434012</v>
+        <v>4.670654976735934</v>
       </c>
       <c r="H38">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I38">
-        <v>39.08948914736037</v>
+        <v>66.28217724987196</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>13.55208240782701</v>
+        <v>22.97961799588058</v>
       </c>
       <c r="C39">
-        <v>1.603852172142735</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="D39">
-        <v>5.252084365103511</v>
+        <v>8.905708271262474</v>
       </c>
       <c r="E39">
-        <v>2.819596180332947</v>
+        <v>4.781054392738475</v>
       </c>
       <c r="F39">
-        <v>1.888376712190336</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="G39">
-        <v>4.476044352705269</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="H39">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I39">
-        <v>29.76045837467907</v>
+        <v>50.46338593967319</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>10.17259586280213</v>
+        <v>17.24918428909928</v>
       </c>
       <c r="C40">
-        <v>2.264261890083861</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="D40">
-        <v>2.780515252113624</v>
+        <v>4.714786731844839</v>
       </c>
       <c r="E40">
-        <v>0.9398653934443156</v>
+        <v>1.593684797579491</v>
       </c>
       <c r="F40">
-        <v>0.7725177458960465</v>
+        <v>1.309921395215036</v>
       </c>
       <c r="G40">
-        <v>3.098799936488263</v>
+        <v>5.254486848827923</v>
       </c>
       <c r="H40">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I40">
-        <v>20.1969782652055</v>
+        <v>34.2470501018702</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>6.485883268229554</v>
+        <v>10.99780206351967</v>
       </c>
       <c r="C41">
-        <v>2.547294626344343</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="E41">
-        <v>0.3132884644814386</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="F41">
-        <v>1.630870796891654</v>
+        <v>2.765389612120631</v>
       </c>
       <c r="G41">
-        <v>3.098799936488263</v>
+        <v>5.254486848827923</v>
       </c>
       <c r="H41">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I41">
-        <v>14.2445592768125</v>
+        <v>24.15381790416034</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>3.891529960937732</v>
+        <v>6.598681238111804</v>
       </c>
       <c r="C42">
-        <v>2.075573399243539</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="D42">
-        <v>2.780515252113624</v>
+        <v>4.714786731844839</v>
       </c>
       <c r="F42">
-        <v>1.201694271393851</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="G42">
-        <v>5.164666560813774</v>
+        <v>8.757478081379874</v>
       </c>
       <c r="I42">
-        <v>15.11397944450252</v>
+        <v>25.62805210154774</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>4.81320810958088</v>
+        <v>8.161526794506704</v>
       </c>
       <c r="C43">
-        <v>1.415163681302413</v>
+        <v>2.399625372643222</v>
       </c>
       <c r="D43">
-        <v>2.162622973866152</v>
+        <v>3.66705634699043</v>
       </c>
       <c r="E43">
-        <v>1.253153857925754</v>
+        <v>2.124913063439322</v>
       </c>
       <c r="F43">
-        <v>1.201694271393851</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="G43">
-        <v>6.541910977030779</v>
+        <v>11.09280556974784</v>
       </c>
       <c r="I43">
-        <v>17.38775387109983</v>
+        <v>29.48358265099535</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>7.953741060513082</v>
+        <v>13.48677832000045</v>
       </c>
       <c r="C44">
-        <v>1.226475190462091</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="D44">
-        <v>4.325245947732304</v>
+        <v>7.334112693980861</v>
       </c>
       <c r="E44">
-        <v>0.6265769289628772</v>
+        <v>1.062456531719661</v>
       </c>
       <c r="F44">
-        <v>1.974212017289896</v>
+        <v>3.347576898882868</v>
       </c>
       <c r="G44">
-        <v>7.919155393247785</v>
+        <v>13.42813305811581</v>
       </c>
       <c r="I44">
-        <v>24.02540653820803</v>
+        <v>40.7387328256571</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>18.02392824013264</v>
+        <v>30.56231310283363</v>
       </c>
       <c r="C45">
-        <v>1.415163681302413</v>
+        <v>2.399625372643222</v>
       </c>
       <c r="D45">
-        <v>10.19522259108328</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="E45">
-        <v>7.832211612035962</v>
+        <v>13.28070664649576</v>
       </c>
       <c r="F45">
-        <v>4.978447695774523</v>
+        <v>8.44171565805245</v>
       </c>
       <c r="G45">
-        <v>12.39519974595305</v>
+        <v>21.01794739531169</v>
       </c>
       <c r="H45">
-        <v>0.1684221843772552</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I45">
-        <v>55.00859575065913</v>
+        <v>93.27544496850898</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>33.24868580660834</v>
+        <v>56.37820636772719</v>
       </c>
       <c r="C46">
-        <v>1.509507926722574</v>
+        <v>2.559600397486104</v>
       </c>
       <c r="D46">
-        <v>18.22782220830042</v>
+        <v>30.90804635320506</v>
       </c>
       <c r="E46">
-        <v>28.19596180332947</v>
+        <v>47.81054392738476</v>
       </c>
       <c r="F46">
-        <v>8.583530509956072</v>
+        <v>14.55468216905595</v>
       </c>
       <c r="G46">
-        <v>20.31435513920084</v>
+        <v>34.4460804534275</v>
       </c>
       <c r="H46">
-        <v>0.6736887375090209</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="I46">
-        <v>110.7535521316267</v>
+        <v>187.7995014405844</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>46.80076821443535</v>
+        <v>79.35782436360773</v>
       </c>
       <c r="C47">
-        <v>0.9434424542016089</v>
+        <v>1.599750248428815</v>
       </c>
       <c r="D47">
-        <v>14.82941467793932</v>
+        <v>25.14552923650581</v>
       </c>
       <c r="E47">
-        <v>22.24348097818213</v>
+        <v>37.71720687604797</v>
       </c>
       <c r="F47">
-        <v>9.956895391549045</v>
+        <v>16.8834313161049</v>
       </c>
       <c r="G47">
-        <v>20.31435513920084</v>
+        <v>34.4460804534275</v>
       </c>
       <c r="H47">
-        <v>1.347377475018042</v>
+        <v>2.28468354459581</v>
       </c>
       <c r="I47">
-        <v>116.4357343305263</v>
+        <v>197.4345060387186</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>57.21231767133015</v>
+        <v>97.01219083399459</v>
       </c>
       <c r="C48">
-        <v>2.075573399243539</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="D48">
-        <v>24.09779885165141</v>
+        <v>40.86148500932193</v>
       </c>
       <c r="E48">
-        <v>11.90496165029466</v>
+        <v>20.18667410267356</v>
       </c>
       <c r="F48">
-        <v>11.93110740883894</v>
+        <v>20.23100821498777</v>
       </c>
       <c r="G48">
-        <v>29.26644384461138</v>
+        <v>49.6257091278193</v>
       </c>
       <c r="H48">
-        <v>1.684221843772552</v>
+        <v>2.855854430744762</v>
       </c>
       <c r="I48">
-        <v>138.1724246697426</v>
+        <v>234.2923722660853</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>43.07991939213524</v>
+        <v>73.04855896927273</v>
       </c>
       <c r="C49">
-        <v>1.320819435882252</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="D49">
-        <v>22.55306815603272</v>
+        <v>38.24215904718593</v>
       </c>
       <c r="E49">
-        <v>25.37636562299653</v>
+        <v>43.02948953464629</v>
       </c>
       <c r="F49">
-        <v>13.56197820573059</v>
+        <v>22.9963978271084</v>
       </c>
       <c r="G49">
-        <v>46.82631015137819</v>
+        <v>79.40113460451084</v>
       </c>
       <c r="H49">
-        <v>3.368443687545104</v>
+        <v>5.711708861489523</v>
       </c>
       <c r="I49">
-        <v>156.0869046517006</v>
+        <v>264.6690991920141</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>64.59761633098924</v>
+        <v>38.00227453240586</v>
       </c>
       <c r="C2">
-        <v>3.519450546543392</v>
+        <v>2.070465343297903</v>
       </c>
       <c r="D2">
-        <v>17.28755135009775</v>
+        <v>10.17013180537923</v>
       </c>
       <c r="E2">
-        <v>21.78035890025306</v>
+        <v>12.8132154923598</v>
       </c>
       <c r="F2">
-        <v>28.67272387304022</v>
+        <v>16.8679401207629</v>
       </c>
       <c r="G2">
-        <v>105.0897369765585</v>
+        <v>61.82347371238275</v>
       </c>
       <c r="H2">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="I2">
-        <v>242.660950635929</v>
+        <v>142.7555471568891</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>77.50556296343606</v>
+        <v>45.59591899542244</v>
       </c>
       <c r="C3">
-        <v>8.47867631667272</v>
+        <v>4.987939236126766</v>
       </c>
       <c r="D3">
-        <v>32.47964193048667</v>
+        <v>19.10752036162157</v>
       </c>
       <c r="E3">
-        <v>9.56210878547695</v>
+        <v>5.625314118596985</v>
       </c>
       <c r="F3">
-        <v>23.28749147048952</v>
+        <v>13.69984984427443</v>
       </c>
       <c r="G3">
-        <v>34.4460804534275</v>
+        <v>20.26436082794768</v>
       </c>
       <c r="H3">
-        <v>3.998196203042667</v>
+        <v>2.352107684034776</v>
       </c>
       <c r="I3">
-        <v>189.7577581230321</v>
+        <v>111.6330110680247</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>83.29387983897271</v>
+        <v>49.00114072771688</v>
       </c>
       <c r="C4">
-        <v>8.798626366358482</v>
+        <v>5.176163358244758</v>
       </c>
       <c r="D4">
-        <v>29.86031596835065</v>
+        <v>17.56659130020047</v>
       </c>
       <c r="E4">
-        <v>6.905967456177796</v>
+        <v>4.062726863431156</v>
       </c>
       <c r="F4">
-        <v>24.88850650908568</v>
+        <v>14.6417145210683</v>
       </c>
       <c r="G4">
-        <v>32.11075296505955</v>
+        <v>18.89050585656138</v>
       </c>
       <c r="H4">
-        <v>3.712610759968191</v>
+        <v>2.184099992318006</v>
       </c>
       <c r="I4">
-        <v>189.570659863973</v>
+        <v>111.5229426195409</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>81.9046837888439</v>
+        <v>48.18388751196621</v>
       </c>
       <c r="C5">
-        <v>7.838776217301193</v>
+        <v>4.611490991890784</v>
       </c>
       <c r="D5">
-        <v>26.71712481378742</v>
+        <v>15.71747642649516</v>
       </c>
       <c r="E5">
-        <v>10.09333705133678</v>
+        <v>5.937831569630152</v>
       </c>
       <c r="F5">
-        <v>29.40045798149302</v>
+        <v>17.29606042839648</v>
       </c>
       <c r="G5">
-        <v>33.27841670924352</v>
+        <v>19.57743334225453</v>
       </c>
       <c r="H5">
-        <v>3.712610759968191</v>
+        <v>2.184099992318006</v>
       </c>
       <c r="I5">
-        <v>192.945407321974</v>
+        <v>113.5082802629513</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>84.56730955159078</v>
+        <v>49.75028950882168</v>
       </c>
       <c r="C6">
-        <v>8.47867631667272</v>
+        <v>4.987939236126766</v>
       </c>
       <c r="D6">
-        <v>33.52737231534108</v>
+        <v>19.72389198619002</v>
       </c>
       <c r="E6">
-        <v>10.09333705133678</v>
+        <v>5.937831569630152</v>
       </c>
       <c r="F6">
-        <v>25.61624061753847</v>
+        <v>15.06983482870187</v>
       </c>
       <c r="G6">
-        <v>26.85626611623161</v>
+        <v>15.79933217094226</v>
       </c>
       <c r="H6">
-        <v>2.570268987670286</v>
+        <v>1.512069225450927</v>
       </c>
       <c r="I6">
-        <v>191.7094709563817</v>
+        <v>112.7811885258637</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>86.59322045802858</v>
+        <v>50.94211711512472</v>
       </c>
       <c r="C7">
-        <v>7.678801192458312</v>
+        <v>4.517378930831788</v>
       </c>
       <c r="D7">
-        <v>36.6705634699043</v>
+        <v>21.57300685989533</v>
       </c>
       <c r="E7">
-        <v>15.40561970993508</v>
+        <v>9.063006079961811</v>
       </c>
       <c r="F7">
-        <v>21.97757007527449</v>
+        <v>12.929233290534</v>
       </c>
       <c r="G7">
-        <v>22.76944301158766</v>
+        <v>13.39508597101626</v>
       </c>
       <c r="H7">
-        <v>3.998196203042667</v>
+        <v>2.352107684034776</v>
       </c>
       <c r="I7">
-        <v>195.0934141202311</v>
+        <v>114.7719359313987</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>95.50722844635507</v>
+        <v>56.18615858285813</v>
       </c>
       <c r="C8">
-        <v>8.318701291829838</v>
+        <v>4.893827175067772</v>
       </c>
       <c r="D8">
-        <v>31.95577673805947</v>
+        <v>18.79933454933735</v>
       </c>
       <c r="E8">
-        <v>18.59298930509407</v>
+        <v>10.93811078616081</v>
       </c>
       <c r="F8">
-        <v>21.68647643189336</v>
+        <v>12.75798516748057</v>
       </c>
       <c r="G8">
-        <v>14.59579680229979</v>
+        <v>8.586593571164268</v>
       </c>
       <c r="H8">
-        <v>6.854050633787428</v>
+        <v>4.032184601202473</v>
       </c>
       <c r="I8">
-        <v>197.5110196493191</v>
+        <v>116.1941944332714</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>106.0419651598318</v>
+        <v>62.38366213563403</v>
       </c>
       <c r="C9">
-        <v>5.439150844657971</v>
+        <v>3.19981007600585</v>
       </c>
       <c r="D9">
-        <v>24.62166404407862</v>
+        <v>14.48473317735829</v>
       </c>
       <c r="E9">
-        <v>28.68632635643085</v>
+        <v>16.87594235579096</v>
       </c>
       <c r="F9">
-        <v>21.10428914513113</v>
+        <v>12.4154889213737</v>
       </c>
       <c r="G9">
-        <v>12.26046931393182</v>
+        <v>7.212738599777987</v>
       </c>
       <c r="H9">
-        <v>1.713512658446857</v>
+        <v>1.008046150300618</v>
       </c>
       <c r="I9">
-        <v>199.8673775225091</v>
+        <v>117.5804214162414</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>102.9741572157974</v>
+        <v>60.57889461751795</v>
       </c>
       <c r="C10">
-        <v>3.519450546543392</v>
+        <v>2.070465343297903</v>
       </c>
       <c r="D10">
-        <v>20.43074250466097</v>
+        <v>12.01924667908454</v>
       </c>
       <c r="E10">
-        <v>38.2484351419078</v>
+        <v>22.50125647438794</v>
       </c>
       <c r="F10">
-        <v>11.35265209186364</v>
+        <v>6.678676799083785</v>
       </c>
       <c r="G10">
-        <v>10.50897369765585</v>
+        <v>6.182347371238269</v>
       </c>
       <c r="H10">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I10">
-        <v>187.3199966415035</v>
+        <v>110.1988949763272</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>72.58549361922985</v>
+        <v>42.70148052297219</v>
       </c>
       <c r="C11">
-        <v>3.039525472014748</v>
+        <v>1.788129160120916</v>
       </c>
       <c r="D11">
-        <v>17.81141654252495</v>
+        <v>10.47831761766344</v>
       </c>
       <c r="E11">
-        <v>29.74878288815052</v>
+        <v>17.50097725785729</v>
       </c>
       <c r="F11">
-        <v>5.82187286762238</v>
+        <v>3.424962461068608</v>
       </c>
       <c r="G11">
-        <v>6.42215059301191</v>
+        <v>3.778101171312278</v>
       </c>
       <c r="H11">
-        <v>0.8567563292234285</v>
+        <v>0.5040230751503091</v>
       </c>
       <c r="I11">
-        <v>136.2859983117778</v>
+        <v>80.17599126614503</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>61.5298083869548</v>
+        <v>36.1975070142898</v>
       </c>
       <c r="C12">
-        <v>6.399000993715261</v>
+        <v>3.764482442359823</v>
       </c>
       <c r="D12">
-        <v>12.0488994258257</v>
+        <v>7.088273682537035</v>
       </c>
       <c r="E12">
-        <v>24.96772849541203</v>
+        <v>14.6883201985588</v>
       </c>
       <c r="F12">
-        <v>5.530779224241261</v>
+        <v>3.253714338015177</v>
       </c>
       <c r="G12">
-        <v>9.925141825563855</v>
+        <v>5.838883628391703</v>
       </c>
       <c r="H12">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I12">
-        <v>120.6869437947874</v>
+        <v>70.99918899586909</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>49.37434294832779</v>
+        <v>29.04654137647151</v>
       </c>
       <c r="C13">
-        <v>4.799250745286445</v>
+        <v>2.823361831769867</v>
       </c>
       <c r="D13">
-        <v>9.429573463689678</v>
+        <v>5.547344621115943</v>
       </c>
       <c r="E13">
-        <v>21.24913063439322</v>
+        <v>12.50069804132664</v>
       </c>
       <c r="F13">
-        <v>3.202030077192309</v>
+        <v>1.883729353587734</v>
       </c>
       <c r="G13">
-        <v>6.42215059301191</v>
+        <v>3.778101171312278</v>
       </c>
       <c r="H13">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="I13">
-        <v>95.0476493480503</v>
+        <v>55.9157917790175</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>37.45041018472227</v>
+        <v>22.03178460794498</v>
       </c>
       <c r="C14">
-        <v>5.439150844657971</v>
+        <v>3.19981007600585</v>
       </c>
       <c r="D14">
-        <v>7.857977886408064</v>
+        <v>4.622787184263283</v>
       </c>
       <c r="E14">
-        <v>6.905967456177796</v>
+        <v>4.062726863431156</v>
       </c>
       <c r="F14">
-        <v>2.037655503667833</v>
+        <v>1.198736861374013</v>
       </c>
       <c r="G14">
-        <v>4.08682310464394</v>
+        <v>2.404246199925996</v>
       </c>
       <c r="H14">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I14">
-        <v>64.06357042335236</v>
+        <v>37.68809948466205</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>23.44268334592352</v>
+        <v>13.79114801579245</v>
       </c>
       <c r="C15">
-        <v>3.519450546543392</v>
+        <v>2.070465343297903</v>
       </c>
       <c r="D15">
-        <v>6.286382309126453</v>
+        <v>3.698229747410627</v>
       </c>
       <c r="E15">
-        <v>4.781054392738475</v>
+        <v>2.812657059298493</v>
       </c>
       <c r="F15">
-        <v>3.347576898882868</v>
+        <v>1.96935341511445</v>
       </c>
       <c r="G15">
-        <v>7.005982465103898</v>
+        <v>4.121564914158848</v>
       </c>
       <c r="H15">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I15">
-        <v>48.66871540139308</v>
+        <v>28.63142618678954</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>17.59648330163148</v>
+        <v>10.35187406617507</v>
       </c>
       <c r="C16">
-        <v>4.959225770129326</v>
+        <v>2.917473892828863</v>
       </c>
       <c r="D16">
-        <v>3.143191154563227</v>
+        <v>1.849114873705313</v>
       </c>
       <c r="E16">
-        <v>1.593684797579491</v>
+        <v>0.9375523530994976</v>
       </c>
       <c r="F16">
-        <v>1.309921395215036</v>
+        <v>0.7706165537404369</v>
       </c>
       <c r="G16">
-        <v>4.670654976735934</v>
+        <v>2.747709942772566</v>
       </c>
       <c r="H16">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I16">
-        <v>33.55874683892897</v>
+        <v>19.74234937403852</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>11.22933473854114</v>
+        <v>6.6061301606512</v>
       </c>
       <c r="C17">
-        <v>5.599125869500852</v>
+        <v>3.293922137064845</v>
       </c>
       <c r="E17">
-        <v>0.5312282658598305</v>
+        <v>0.3125174510331659</v>
       </c>
       <c r="F17">
-        <v>2.765389612120631</v>
+        <v>1.626857169007589</v>
       </c>
       <c r="G17">
-        <v>4.670654976735934</v>
+        <v>2.747709942772566</v>
       </c>
       <c r="H17">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I17">
-        <v>25.08131890583286</v>
+        <v>14.75514455224614</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>6.714447575622538</v>
+        <v>3.950057209461539</v>
       </c>
       <c r="C18">
-        <v>4.639275720443563</v>
+        <v>2.729249770710871</v>
       </c>
       <c r="D18">
-        <v>3.143191154563227</v>
+        <v>1.849114873705313</v>
       </c>
       <c r="F18">
-        <v>2.037655503667833</v>
+        <v>1.198736861374013</v>
       </c>
       <c r="G18">
-        <v>8.173646209287881</v>
+        <v>4.808492399851992</v>
       </c>
       <c r="I18">
-        <v>24.70821616358504</v>
+        <v>14.53565111510373</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>8.335176300772808</v>
+        <v>4.903519294503984</v>
       </c>
       <c r="C19">
-        <v>3.039525472014748</v>
+        <v>1.788129160120916</v>
       </c>
       <c r="D19">
-        <v>2.619325962136021</v>
+        <v>1.540929061421095</v>
       </c>
       <c r="E19">
-        <v>2.124913063439322</v>
+        <v>1.250069804132663</v>
       </c>
       <c r="F19">
-        <v>2.037655503667833</v>
+        <v>1.198736861374013</v>
       </c>
       <c r="G19">
-        <v>9.925141825563855</v>
+        <v>5.838883628391703</v>
       </c>
       <c r="I19">
-        <v>28.08173812759459</v>
+        <v>16.52026780994437</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>13.77619416377727</v>
+        <v>8.104427722860747</v>
       </c>
       <c r="C20">
-        <v>2.719575422328985</v>
+        <v>1.599905038002925</v>
       </c>
       <c r="D20">
-        <v>5.238651924272043</v>
+        <v>3.08185812284219</v>
       </c>
       <c r="E20">
-        <v>1.062456531719661</v>
+        <v>0.6250349020663317</v>
       </c>
       <c r="F20">
-        <v>3.493123720573428</v>
+        <v>2.054977476641165</v>
       </c>
       <c r="G20">
-        <v>12.26046931393182</v>
+        <v>7.212738599777987</v>
       </c>
       <c r="I20">
-        <v>38.55047107660322</v>
+        <v>22.67894186219134</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>31.19902795914266</v>
+        <v>18.35414513706699</v>
       </c>
       <c r="C21">
-        <v>3.039525472014748</v>
+        <v>1.788129160120916</v>
       </c>
       <c r="D21">
-        <v>12.0488994258257</v>
+        <v>7.088273682537035</v>
       </c>
       <c r="E21">
-        <v>13.81193491235559</v>
+        <v>8.125453726862313</v>
       </c>
       <c r="F21">
-        <v>8.732809301433569</v>
+        <v>5.137443691602911</v>
       </c>
       <c r="G21">
-        <v>19.26645177903572</v>
+        <v>11.33430351393683</v>
       </c>
       <c r="H21">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I21">
-        <v>88.38423429288248</v>
+        <v>51.99575660384377</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>57.53586974283451</v>
+        <v>33.84790401900666</v>
       </c>
       <c r="C22">
-        <v>3.359475521700511</v>
+        <v>1.976353282238907</v>
       </c>
       <c r="D22">
-        <v>21.47847288951538</v>
+        <v>12.63561830365297</v>
       </c>
       <c r="E22">
-        <v>49.40422872496426</v>
+        <v>29.06412294608443</v>
       </c>
       <c r="F22">
-        <v>14.99132263412763</v>
+        <v>8.819278337251665</v>
       </c>
       <c r="G22">
-        <v>31.52692109296754</v>
+        <v>18.54704211371482</v>
       </c>
       <c r="H22">
-        <v>1.142341772297905</v>
+        <v>0.6720307668670789</v>
       </c>
       <c r="I22">
-        <v>179.4386323784077</v>
+        <v>105.5623497688165</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>80.97855308875803</v>
+        <v>47.63905203479909</v>
       </c>
       <c r="C23">
-        <v>2.079675322957459</v>
+        <v>1.223456793766943</v>
       </c>
       <c r="D23">
-        <v>17.28755135009775</v>
+        <v>10.17013180537923</v>
       </c>
       <c r="E23">
-        <v>38.77966340776763</v>
+        <v>22.81377392542111</v>
       </c>
       <c r="F23">
-        <v>17.32007178117658</v>
+        <v>10.18926332167911</v>
       </c>
       <c r="G23">
-        <v>31.52692109296754</v>
+        <v>18.54704211371482</v>
       </c>
       <c r="H23">
-        <v>1.999098101521333</v>
+        <v>1.176053842017388</v>
       </c>
       <c r="I23">
-        <v>189.9715341452463</v>
+        <v>111.7587738367777</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>98.98021857167707</v>
+        <v>58.2292916222348</v>
       </c>
       <c r="C24">
-        <v>4.479300695600682</v>
+        <v>2.635137709651877</v>
       </c>
       <c r="D24">
-        <v>28.28872039106904</v>
+        <v>16.64203386334783</v>
       </c>
       <c r="E24">
-        <v>20.71790236853339</v>
+        <v>12.18818059029347</v>
       </c>
       <c r="F24">
-        <v>20.81319550175001</v>
+        <v>12.24424079832027</v>
       </c>
       <c r="G24">
-        <v>45.53888602317533</v>
+        <v>26.79017194203252</v>
       </c>
       <c r="H24">
-        <v>2.570268987670286</v>
+        <v>1.512069225450927</v>
       </c>
       <c r="I24">
-        <v>221.3884925394758</v>
+        <v>130.2411257513317</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>74.55352135691237</v>
+        <v>43.85925591195228</v>
       </c>
       <c r="C25">
-        <v>2.879550447171867</v>
+        <v>1.69401709906192</v>
       </c>
       <c r="D25">
-        <v>26.71712481378742</v>
+        <v>15.71747642649516</v>
       </c>
       <c r="E25">
-        <v>44.09194606636594</v>
+        <v>25.93894843575277</v>
       </c>
       <c r="F25">
-        <v>23.57858511387064</v>
+        <v>13.87109796732786</v>
       </c>
       <c r="G25">
-        <v>72.97898401149895</v>
+        <v>42.93296785582133</v>
       </c>
       <c r="H25">
-        <v>5.140537975340572</v>
+        <v>3.024138450901854</v>
       </c>
       <c r="I25">
-        <v>249.9402497849478</v>
+        <v>147.0379021473132</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>63.32418661837122</v>
+        <v>37.25312575130111</v>
       </c>
       <c r="C26">
-        <v>2.719575422328985</v>
+        <v>1.599905038002925</v>
       </c>
       <c r="D26">
-        <v>25.14552923650581</v>
+        <v>14.79291898964251</v>
       </c>
       <c r="E26">
-        <v>21.24913063439322</v>
+        <v>12.50069804132664</v>
       </c>
       <c r="F26">
-        <v>27.94498976458743</v>
+        <v>16.43981981312932</v>
       </c>
       <c r="G26">
-        <v>114.4310469300304</v>
+        <v>67.31889359792785</v>
       </c>
       <c r="H26">
-        <v>1.999098101521333</v>
+        <v>1.176053842017388</v>
       </c>
       <c r="I26">
-        <v>256.8135567077384</v>
+        <v>151.0814150733477</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>75.94271740704114</v>
+        <v>44.67650912770295</v>
       </c>
       <c r="C27">
-        <v>6.55897601855814</v>
+        <v>3.858594503418819</v>
       </c>
       <c r="D27">
-        <v>46.62400212602119</v>
+        <v>27.42853729329549</v>
       </c>
       <c r="E27">
-        <v>9.030880519617121</v>
+        <v>5.31279666756382</v>
       </c>
       <c r="F27">
-        <v>22.70530418372728</v>
+        <v>13.35735359816757</v>
       </c>
       <c r="G27">
-        <v>37.36523981388747</v>
+        <v>21.98167954218053</v>
       </c>
       <c r="H27">
-        <v>4.283781646117143</v>
+        <v>2.520115375751545</v>
       </c>
       <c r="I27">
-        <v>202.5109017149695</v>
+        <v>119.1355861080807</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>81.61526794506706</v>
+        <v>48.01362642535149</v>
       </c>
       <c r="C28">
-        <v>6.718951043401023</v>
+        <v>3.952706564477815</v>
       </c>
       <c r="D28">
-        <v>42.95694577903075</v>
+        <v>25.27123660730595</v>
       </c>
       <c r="E28">
-        <v>6.905967456177796</v>
+        <v>4.062726863431156</v>
       </c>
       <c r="F28">
-        <v>24.30631922232344</v>
+        <v>14.29921827496144</v>
       </c>
       <c r="G28">
-        <v>35.0299123255195</v>
+        <v>20.60782457079425</v>
       </c>
       <c r="H28">
-        <v>3.998196203042667</v>
+        <v>2.352107684034776</v>
       </c>
       <c r="I28">
-        <v>201.5315599745622</v>
+        <v>118.5594469903569</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>80.28395506369364</v>
+        <v>47.23042542692377</v>
       </c>
       <c r="C29">
-        <v>6.079050944029497</v>
+        <v>3.576258320241832</v>
       </c>
       <c r="D29">
-        <v>38.24215904718593</v>
+        <v>22.49756429674799</v>
       </c>
       <c r="E29">
-        <v>9.56210878547695</v>
+        <v>5.625314118596985</v>
       </c>
       <c r="F29">
-        <v>28.67272387304022</v>
+        <v>16.8679401207629</v>
       </c>
       <c r="G29">
-        <v>36.19757606970347</v>
+        <v>21.29475205648738</v>
       </c>
       <c r="H29">
-        <v>3.998196203042667</v>
+        <v>2.352107684034776</v>
       </c>
       <c r="I29">
-        <v>203.0357699861723</v>
+        <v>119.4443620237956</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>82.88869765768513</v>
+        <v>48.76277520645627</v>
       </c>
       <c r="C30">
-        <v>6.55897601855814</v>
+        <v>3.858594503418819</v>
       </c>
       <c r="D30">
-        <v>48.19559770330282</v>
+        <v>28.35309473014814</v>
       </c>
       <c r="E30">
-        <v>9.56210878547695</v>
+        <v>5.625314118596985</v>
       </c>
       <c r="F30">
-        <v>25.03405333077623</v>
+        <v>14.72733858259501</v>
       </c>
       <c r="G30">
-        <v>29.19159360459958</v>
+        <v>17.17318714232854</v>
       </c>
       <c r="H30">
-        <v>2.855854430744762</v>
+        <v>1.680076917167697</v>
       </c>
       <c r="I30">
-        <v>204.2868815311436</v>
+        <v>120.1803812007115</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>84.85672539536759</v>
+        <v>49.92055059543636</v>
       </c>
       <c r="C31">
-        <v>5.919075919186615</v>
+        <v>3.482146259182837</v>
       </c>
       <c r="D31">
-        <v>52.91038443514766</v>
+        <v>31.12676704070611</v>
       </c>
       <c r="E31">
-        <v>14.87439144407526</v>
+        <v>8.750488628928645</v>
       </c>
       <c r="F31">
-        <v>21.39538278851225</v>
+        <v>12.58673704442714</v>
       </c>
       <c r="G31">
-        <v>24.52093862786365</v>
+        <v>14.42547719955597</v>
       </c>
       <c r="H31">
-        <v>4.283781646117143</v>
+        <v>2.520115375751545</v>
       </c>
       <c r="I31">
-        <v>208.7606802562701</v>
+        <v>122.8122821439886</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>93.59708387742796</v>
+        <v>55.06243541120098</v>
       </c>
       <c r="C32">
-        <v>6.399000993715261</v>
+        <v>3.764482442359823</v>
       </c>
       <c r="D32">
-        <v>46.100136933594</v>
+        <v>27.12035148101126</v>
       </c>
       <c r="E32">
-        <v>18.06176103923424</v>
+        <v>10.62559333512764</v>
       </c>
       <c r="F32">
-        <v>21.10428914513113</v>
+        <v>12.4154889213737</v>
       </c>
       <c r="G32">
-        <v>15.76346054648377</v>
+        <v>9.273521056857412</v>
       </c>
       <c r="H32">
-        <v>7.425221519936382</v>
+        <v>4.368199984636012</v>
       </c>
       <c r="I32">
-        <v>208.4509540555227</v>
+        <v>122.6300726325668</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>103.9002879158833</v>
+        <v>61.12373009468506</v>
       </c>
       <c r="C33">
-        <v>4.159350645914919</v>
+        <v>2.446913587533886</v>
       </c>
       <c r="D33">
-        <v>35.6228330850499</v>
+        <v>20.95663523532689</v>
       </c>
       <c r="E33">
-        <v>27.62386982471118</v>
+        <v>16.25090745372463</v>
       </c>
       <c r="F33">
-        <v>20.52210185836888</v>
+        <v>12.07299267526684</v>
       </c>
       <c r="G33">
-        <v>13.42813305811581</v>
+        <v>7.89966608547113</v>
       </c>
       <c r="H33">
-        <v>1.999098101521333</v>
+        <v>1.176053842017388</v>
       </c>
       <c r="I33">
-        <v>207.2556744895653</v>
+        <v>121.9268989740258</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>100.8903631406042</v>
+        <v>59.35301479389197</v>
       </c>
       <c r="C34">
-        <v>2.719575422328985</v>
+        <v>1.599905038002925</v>
       </c>
       <c r="D34">
-        <v>29.33645077592344</v>
+        <v>17.25840548791626</v>
       </c>
       <c r="E34">
-        <v>37.18597861018814</v>
+        <v>21.87622157232161</v>
       </c>
       <c r="F34">
-        <v>11.06155844848252</v>
+        <v>6.507428676030354</v>
       </c>
       <c r="G34">
-        <v>11.67663744183983</v>
+        <v>6.869274856931413</v>
       </c>
       <c r="H34">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I34">
-        <v>193.1561492824416</v>
+        <v>113.6322581168113</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>71.13841440034571</v>
+        <v>41.85017508989858</v>
       </c>
       <c r="C35">
-        <v>2.399625372643222</v>
+        <v>1.411680915884934</v>
       </c>
       <c r="D35">
-        <v>25.66939442893302</v>
+        <v>15.10110480192673</v>
       </c>
       <c r="E35">
-        <v>28.68632635643085</v>
+        <v>16.87594235579096</v>
       </c>
       <c r="F35">
-        <v>5.67632604593182</v>
+        <v>3.339338399541893</v>
       </c>
       <c r="G35">
-        <v>7.005982465103898</v>
+        <v>4.121564914158848</v>
       </c>
       <c r="H35">
-        <v>0.8567563292234285</v>
+        <v>0.5040230751503091</v>
       </c>
       <c r="I35">
-        <v>141.432825398612</v>
+        <v>83.20382955235225</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>60.31426184309213</v>
+        <v>35.48241045050799</v>
       </c>
       <c r="C36">
-        <v>4.959225770129326</v>
+        <v>2.917473892828863</v>
       </c>
       <c r="D36">
-        <v>17.28755135009775</v>
+        <v>10.17013180537923</v>
       </c>
       <c r="E36">
-        <v>24.43650022955221</v>
+        <v>14.37580274752563</v>
       </c>
       <c r="F36">
-        <v>5.385232402550701</v>
+        <v>3.168090276488463</v>
       </c>
       <c r="G36">
-        <v>11.09280556974784</v>
+        <v>6.525811114084845</v>
       </c>
       <c r="H36">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I36">
-        <v>123.7611626082444</v>
+        <v>72.80772797853179</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>48.3903290794866</v>
+        <v>28.46765368198146</v>
       </c>
       <c r="C37">
-        <v>3.679425571386274</v>
+        <v>2.164577404356899</v>
       </c>
       <c r="D37">
-        <v>13.62049500310732</v>
+        <v>8.012831119389693</v>
       </c>
       <c r="E37">
-        <v>20.71790236853339</v>
+        <v>12.18818059029347</v>
       </c>
       <c r="F37">
-        <v>3.05648325550175</v>
+        <v>1.798105292061019</v>
       </c>
       <c r="G37">
-        <v>7.005982465103898</v>
+        <v>4.121564914158848</v>
       </c>
       <c r="H37">
-        <v>0.5711708861489524</v>
+        <v>0.3360153834335394</v>
       </c>
       <c r="I37">
-        <v>97.04178862926817</v>
+        <v>57.08892838567493</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>36.69792899090249</v>
+        <v>21.58910578274669</v>
       </c>
       <c r="C38">
-        <v>4.159350645914919</v>
+        <v>2.446913587533886</v>
       </c>
       <c r="D38">
-        <v>11.5250342333985</v>
+        <v>6.780087870252815</v>
       </c>
       <c r="E38">
-        <v>6.905967456177796</v>
+        <v>4.062726863431156</v>
       </c>
       <c r="F38">
-        <v>2.037655503667833</v>
+        <v>1.198736861374013</v>
       </c>
       <c r="G38">
-        <v>4.670654976735934</v>
+        <v>2.747709942772566</v>
       </c>
       <c r="H38">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I38">
-        <v>66.28217724987196</v>
+        <v>38.9932885998279</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>22.97961799588058</v>
+        <v>13.5187302772089</v>
       </c>
       <c r="C39">
-        <v>2.719575422328985</v>
+        <v>1.599905038002925</v>
       </c>
       <c r="D39">
-        <v>8.905708271262474</v>
+        <v>5.239158808831721</v>
       </c>
       <c r="E39">
-        <v>4.781054392738475</v>
+        <v>2.812657059298493</v>
       </c>
       <c r="F39">
-        <v>3.202030077192309</v>
+        <v>1.883729353587734</v>
       </c>
       <c r="G39">
-        <v>7.589814337195892</v>
+        <v>4.46502865700542</v>
       </c>
       <c r="H39">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I39">
-        <v>50.46338593967319</v>
+        <v>29.68721688565196</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>17.24918428909928</v>
+        <v>10.14756076223741</v>
       </c>
       <c r="C40">
-        <v>3.839400596229156</v>
+        <v>2.258689465415894</v>
       </c>
       <c r="D40">
-        <v>4.714786731844839</v>
+        <v>2.773672310557971</v>
       </c>
       <c r="E40">
-        <v>1.593684797579491</v>
+        <v>0.9375523530994976</v>
       </c>
       <c r="F40">
-        <v>1.309921395215036</v>
+        <v>0.7706165537404369</v>
       </c>
       <c r="G40">
-        <v>5.254486848827923</v>
+        <v>3.091173685619135</v>
       </c>
       <c r="H40">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I40">
-        <v>34.2470501018702</v>
+        <v>20.14727282238712</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>10.99780206351967</v>
+        <v>6.469921291359421</v>
       </c>
       <c r="C41">
-        <v>4.3193256707578</v>
+        <v>2.541025648592881</v>
       </c>
       <c r="E41">
-        <v>0.5312282658598305</v>
+        <v>0.3125174510331659</v>
       </c>
       <c r="F41">
-        <v>2.765389612120631</v>
+        <v>1.626857169007589</v>
       </c>
       <c r="G41">
-        <v>5.254486848827923</v>
+        <v>3.091173685619135</v>
       </c>
       <c r="H41">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I41">
-        <v>24.15381790416034</v>
+        <v>14.20950293732896</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>6.598681238111804</v>
+        <v>3.881952774815653</v>
       </c>
       <c r="C42">
-        <v>3.519450546543392</v>
+        <v>2.070465343297903</v>
       </c>
       <c r="D42">
-        <v>4.714786731844839</v>
+        <v>2.773672310557971</v>
       </c>
       <c r="F42">
-        <v>2.037655503667833</v>
+        <v>1.198736861374013</v>
       </c>
       <c r="G42">
-        <v>8.757478081379874</v>
+        <v>5.151956142698562</v>
       </c>
       <c r="I42">
-        <v>25.62805210154774</v>
+        <v>15.0767834327441</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>8.161526794506704</v>
+        <v>4.801362642535147</v>
       </c>
       <c r="C43">
-        <v>2.399625372643222</v>
+        <v>1.411680915884934</v>
       </c>
       <c r="D43">
-        <v>3.66705634699043</v>
+        <v>2.157300685989533</v>
       </c>
       <c r="E43">
-        <v>2.124913063439322</v>
+        <v>1.250069804132663</v>
       </c>
       <c r="F43">
-        <v>2.037655503667833</v>
+        <v>1.198736861374013</v>
       </c>
       <c r="G43">
-        <v>11.09280556974784</v>
+        <v>6.525811114084845</v>
       </c>
       <c r="I43">
-        <v>29.48358265099535</v>
+        <v>17.34496202400113</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>13.48677832000045</v>
+        <v>7.934166636246027</v>
       </c>
       <c r="C44">
-        <v>2.079675322957459</v>
+        <v>1.223456793766943</v>
       </c>
       <c r="D44">
-        <v>7.334112693980861</v>
+        <v>4.314601371979065</v>
       </c>
       <c r="E44">
-        <v>1.062456531719661</v>
+        <v>0.6250349020663317</v>
       </c>
       <c r="F44">
-        <v>3.347576898882868</v>
+        <v>1.96935341511445</v>
       </c>
       <c r="G44">
-        <v>13.42813305811581</v>
+        <v>7.89966608547113</v>
       </c>
       <c r="I44">
-        <v>40.7387328256571</v>
+        <v>23.96627920464395</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>30.56231310283363</v>
+        <v>17.9795707465146</v>
       </c>
       <c r="C45">
-        <v>2.399625372643222</v>
+        <v>1.411680915884934</v>
       </c>
       <c r="D45">
-        <v>17.28755135009775</v>
+        <v>10.17013180537923</v>
       </c>
       <c r="E45">
-        <v>13.28070664649576</v>
+        <v>7.812936275829149</v>
       </c>
       <c r="F45">
-        <v>8.44171565805245</v>
+        <v>4.966195568549482</v>
       </c>
       <c r="G45">
-        <v>21.01794739531169</v>
+        <v>12.36469474247654</v>
       </c>
       <c r="H45">
-        <v>0.2855854430744762</v>
+        <v>0.1680076917167697</v>
       </c>
       <c r="I45">
-        <v>93.27544496850898</v>
+        <v>54.8732177463507</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>56.37820636772719</v>
+        <v>33.16685967254777</v>
       </c>
       <c r="C46">
-        <v>2.559600397486104</v>
+        <v>1.505792976943929</v>
       </c>
       <c r="D46">
-        <v>30.90804635320506</v>
+        <v>18.18296292476892</v>
       </c>
       <c r="E46">
-        <v>47.81054392738476</v>
+        <v>28.12657059298493</v>
       </c>
       <c r="F46">
-        <v>14.55468216905595</v>
+        <v>8.562406152671519</v>
       </c>
       <c r="G46">
-        <v>34.4460804534275</v>
+        <v>20.26436082794768</v>
       </c>
       <c r="H46">
-        <v>1.142341772297905</v>
+        <v>0.6720307668670789</v>
       </c>
       <c r="I46">
-        <v>187.7995014405844</v>
+        <v>110.4809839147318</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>79.35782436360773</v>
+        <v>46.68558994975668</v>
       </c>
       <c r="C47">
-        <v>1.599750248428815</v>
+        <v>0.9411206105899557</v>
       </c>
       <c r="D47">
-        <v>25.14552923650581</v>
+        <v>14.79291898964251</v>
       </c>
       <c r="E47">
-        <v>37.71720687604797</v>
+        <v>22.18873902335478</v>
       </c>
       <c r="F47">
-        <v>16.8834313161049</v>
+        <v>9.932391137098964</v>
       </c>
       <c r="G47">
-        <v>34.4460804534275</v>
+        <v>20.26436082794768</v>
       </c>
       <c r="H47">
-        <v>2.28468354459581</v>
+        <v>1.344061533734158</v>
       </c>
       <c r="I47">
-        <v>197.4345060387186</v>
+        <v>116.1491820721247</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>97.01219083399459</v>
+        <v>57.07151623325471</v>
       </c>
       <c r="C48">
-        <v>3.519450546543392</v>
+        <v>2.070465343297903</v>
       </c>
       <c r="D48">
-        <v>40.86148500932193</v>
+        <v>24.03849335816908</v>
       </c>
       <c r="E48">
-        <v>20.18667410267356</v>
+        <v>11.8756631392603</v>
       </c>
       <c r="F48">
-        <v>20.23100821498777</v>
+        <v>11.90174455221341</v>
       </c>
       <c r="G48">
-        <v>49.6257091278193</v>
+        <v>29.19441814195851</v>
       </c>
       <c r="H48">
-        <v>2.855854430744762</v>
+        <v>1.680076917167697</v>
       </c>
       <c r="I48">
-        <v>234.2923722660853</v>
+        <v>137.8323776853216</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>73.04855896927273</v>
+        <v>42.9738982615557</v>
       </c>
       <c r="C49">
-        <v>2.239650347800341</v>
+        <v>1.317568854825939</v>
       </c>
       <c r="D49">
-        <v>38.24215904718593</v>
+        <v>22.49756429674799</v>
       </c>
       <c r="E49">
-        <v>43.02948953464629</v>
+        <v>25.31391353368644</v>
       </c>
       <c r="F49">
-        <v>22.9963978271084</v>
+        <v>13.528601721221</v>
       </c>
       <c r="G49">
-        <v>79.40113460451084</v>
+        <v>46.71106902713363</v>
       </c>
       <c r="H49">
-        <v>5.711708861489523</v>
+        <v>3.360153834335394</v>
       </c>
       <c r="I49">
-        <v>264.6690991920141</v>
+        <v>155.7027695295061</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>38.00227453240586</v>
+        <v>64.59761633098924</v>
       </c>
       <c r="C2">
-        <v>2.070465343297903</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="D2">
-        <v>10.17013180537923</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="E2">
-        <v>12.8132154923598</v>
+        <v>21.78035890025306</v>
       </c>
       <c r="F2">
-        <v>16.8679401207629</v>
+        <v>28.67272387304022</v>
       </c>
       <c r="G2">
-        <v>61.82347371238275</v>
+        <v>105.0897369765585</v>
       </c>
       <c r="H2">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="I2">
-        <v>142.7555471568891</v>
+        <v>242.660950635929</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>45.59591899542244</v>
+        <v>77.50556296343606</v>
       </c>
       <c r="C3">
-        <v>4.987939236126766</v>
+        <v>8.47867631667272</v>
       </c>
       <c r="D3">
-        <v>19.10752036162157</v>
+        <v>32.47964193048667</v>
       </c>
       <c r="E3">
-        <v>5.625314118596985</v>
+        <v>9.56210878547695</v>
       </c>
       <c r="F3">
-        <v>13.69984984427443</v>
+        <v>23.28749147048952</v>
       </c>
       <c r="G3">
-        <v>20.26436082794768</v>
+        <v>34.4460804534275</v>
       </c>
       <c r="H3">
-        <v>2.352107684034776</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="I3">
-        <v>111.6330110680247</v>
+        <v>189.7577581230321</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>49.00114072771688</v>
+        <v>83.29387983897271</v>
       </c>
       <c r="C4">
-        <v>5.176163358244758</v>
+        <v>8.798626366358482</v>
       </c>
       <c r="D4">
-        <v>17.56659130020047</v>
+        <v>29.86031596835065</v>
       </c>
       <c r="E4">
-        <v>4.062726863431156</v>
+        <v>6.905967456177796</v>
       </c>
       <c r="F4">
-        <v>14.6417145210683</v>
+        <v>24.88850650908568</v>
       </c>
       <c r="G4">
-        <v>18.89050585656138</v>
+        <v>32.11075296505955</v>
       </c>
       <c r="H4">
-        <v>2.184099992318006</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="I4">
-        <v>111.5229426195409</v>
+        <v>189.570659863973</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>48.18388751196621</v>
+        <v>81.9046837888439</v>
       </c>
       <c r="C5">
-        <v>4.611490991890784</v>
+        <v>7.838776217301193</v>
       </c>
       <c r="D5">
-        <v>15.71747642649516</v>
+        <v>26.71712481378742</v>
       </c>
       <c r="E5">
-        <v>5.937831569630152</v>
+        <v>10.09333705133678</v>
       </c>
       <c r="F5">
-        <v>17.29606042839648</v>
+        <v>29.40045798149302</v>
       </c>
       <c r="G5">
-        <v>19.57743334225453</v>
+        <v>33.27841670924352</v>
       </c>
       <c r="H5">
-        <v>2.184099992318006</v>
+        <v>3.712610759968191</v>
       </c>
       <c r="I5">
-        <v>113.5082802629513</v>
+        <v>192.945407321974</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>49.75028950882168</v>
+        <v>84.56730955159078</v>
       </c>
       <c r="C6">
-        <v>4.987939236126766</v>
+        <v>8.47867631667272</v>
       </c>
       <c r="D6">
-        <v>19.72389198619002</v>
+        <v>33.52737231534108</v>
       </c>
       <c r="E6">
-        <v>5.937831569630152</v>
+        <v>10.09333705133678</v>
       </c>
       <c r="F6">
-        <v>15.06983482870187</v>
+        <v>25.61624061753847</v>
       </c>
       <c r="G6">
-        <v>15.79933217094226</v>
+        <v>26.85626611623161</v>
       </c>
       <c r="H6">
-        <v>1.512069225450927</v>
+        <v>2.570268987670286</v>
       </c>
       <c r="I6">
-        <v>112.7811885258637</v>
+        <v>191.7094709563817</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>50.94211711512472</v>
+        <v>86.59322045802858</v>
       </c>
       <c r="C7">
-        <v>4.517378930831788</v>
+        <v>7.678801192458312</v>
       </c>
       <c r="D7">
-        <v>21.57300685989533</v>
+        <v>36.6705634699043</v>
       </c>
       <c r="E7">
-        <v>9.063006079961811</v>
+        <v>15.40561970993508</v>
       </c>
       <c r="F7">
-        <v>12.929233290534</v>
+        <v>21.97757007527449</v>
       </c>
       <c r="G7">
-        <v>13.39508597101626</v>
+        <v>22.76944301158766</v>
       </c>
       <c r="H7">
-        <v>2.352107684034776</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="I7">
-        <v>114.7719359313987</v>
+        <v>195.0934141202311</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>56.18615858285813</v>
+        <v>95.50722844635507</v>
       </c>
       <c r="C8">
-        <v>4.893827175067772</v>
+        <v>8.318701291829838</v>
       </c>
       <c r="D8">
-        <v>18.79933454933735</v>
+        <v>31.95577673805947</v>
       </c>
       <c r="E8">
-        <v>10.93811078616081</v>
+        <v>18.59298930509407</v>
       </c>
       <c r="F8">
-        <v>12.75798516748057</v>
+        <v>21.68647643189336</v>
       </c>
       <c r="G8">
-        <v>8.586593571164268</v>
+        <v>14.59579680229979</v>
       </c>
       <c r="H8">
-        <v>4.032184601202473</v>
+        <v>6.854050633787428</v>
       </c>
       <c r="I8">
-        <v>116.1941944332714</v>
+        <v>197.5110196493191</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>62.38366213563403</v>
+        <v>106.0419651598318</v>
       </c>
       <c r="C9">
-        <v>3.19981007600585</v>
+        <v>5.439150844657971</v>
       </c>
       <c r="D9">
-        <v>14.48473317735829</v>
+        <v>24.62166404407862</v>
       </c>
       <c r="E9">
-        <v>16.87594235579096</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="F9">
-        <v>12.4154889213737</v>
+        <v>21.10428914513113</v>
       </c>
       <c r="G9">
-        <v>7.212738599777987</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="H9">
-        <v>1.008046150300618</v>
+        <v>1.713512658446857</v>
       </c>
       <c r="I9">
-        <v>117.5804214162414</v>
+        <v>199.8673775225091</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>60.57889461751795</v>
+        <v>102.9741572157974</v>
       </c>
       <c r="C10">
-        <v>2.070465343297903</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="D10">
-        <v>12.01924667908454</v>
+        <v>20.43074250466097</v>
       </c>
       <c r="E10">
-        <v>22.50125647438794</v>
+        <v>38.2484351419078</v>
       </c>
       <c r="F10">
-        <v>6.678676799083785</v>
+        <v>11.35265209186364</v>
       </c>
       <c r="G10">
-        <v>6.182347371238269</v>
+        <v>10.50897369765585</v>
       </c>
       <c r="H10">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I10">
-        <v>110.1988949763272</v>
+        <v>187.3199966415035</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>42.70148052297219</v>
+        <v>72.58549361922985</v>
       </c>
       <c r="C11">
-        <v>1.788129160120916</v>
+        <v>3.039525472014748</v>
       </c>
       <c r="D11">
-        <v>10.47831761766344</v>
+        <v>17.81141654252495</v>
       </c>
       <c r="E11">
-        <v>17.50097725785729</v>
+        <v>29.74878288815052</v>
       </c>
       <c r="F11">
-        <v>3.424962461068608</v>
+        <v>5.82187286762238</v>
       </c>
       <c r="G11">
-        <v>3.778101171312278</v>
+        <v>6.42215059301191</v>
       </c>
       <c r="H11">
-        <v>0.5040230751503091</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="I11">
-        <v>80.17599126614503</v>
+        <v>136.2859983117778</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>36.1975070142898</v>
+        <v>61.5298083869548</v>
       </c>
       <c r="C12">
-        <v>3.764482442359823</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="D12">
-        <v>7.088273682537035</v>
+        <v>12.0488994258257</v>
       </c>
       <c r="E12">
-        <v>14.6883201985588</v>
+        <v>24.96772849541203</v>
       </c>
       <c r="F12">
-        <v>3.253714338015177</v>
+        <v>5.530779224241261</v>
       </c>
       <c r="G12">
-        <v>5.838883628391703</v>
+        <v>9.925141825563855</v>
       </c>
       <c r="H12">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I12">
-        <v>70.99918899586909</v>
+        <v>120.6869437947874</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>29.04654137647151</v>
+        <v>49.37434294832779</v>
       </c>
       <c r="C13">
-        <v>2.823361831769867</v>
+        <v>4.799250745286445</v>
       </c>
       <c r="D13">
-        <v>5.547344621115943</v>
+        <v>9.429573463689678</v>
       </c>
       <c r="E13">
-        <v>12.50069804132664</v>
+        <v>21.24913063439322</v>
       </c>
       <c r="F13">
-        <v>1.883729353587734</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="G13">
-        <v>3.778101171312278</v>
+        <v>6.42215059301191</v>
       </c>
       <c r="H13">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I13">
-        <v>55.9157917790175</v>
+        <v>95.0476493480503</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>22.03178460794498</v>
+        <v>37.45041018472227</v>
       </c>
       <c r="C14">
-        <v>3.19981007600585</v>
+        <v>5.439150844657971</v>
       </c>
       <c r="D14">
-        <v>4.622787184263283</v>
+        <v>7.857977886408064</v>
       </c>
       <c r="E14">
-        <v>4.062726863431156</v>
+        <v>6.905967456177796</v>
       </c>
       <c r="F14">
-        <v>1.198736861374013</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="G14">
-        <v>2.404246199925996</v>
+        <v>4.08682310464394</v>
       </c>
       <c r="H14">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I14">
-        <v>37.68809948466205</v>
+        <v>64.06357042335236</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>13.79114801579245</v>
+        <v>23.44268334592352</v>
       </c>
       <c r="C15">
-        <v>2.070465343297903</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="D15">
-        <v>3.698229747410627</v>
+        <v>6.286382309126453</v>
       </c>
       <c r="E15">
-        <v>2.812657059298493</v>
+        <v>4.781054392738475</v>
       </c>
       <c r="F15">
-        <v>1.96935341511445</v>
+        <v>3.347576898882868</v>
       </c>
       <c r="G15">
-        <v>4.121564914158848</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="H15">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I15">
-        <v>28.63142618678954</v>
+        <v>48.66871540139308</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>10.35187406617507</v>
+        <v>17.59648330163148</v>
       </c>
       <c r="C16">
-        <v>2.917473892828863</v>
+        <v>4.959225770129326</v>
       </c>
       <c r="D16">
-        <v>1.849114873705313</v>
+        <v>3.143191154563227</v>
       </c>
       <c r="E16">
-        <v>0.9375523530994976</v>
+        <v>1.593684797579491</v>
       </c>
       <c r="F16">
-        <v>0.7706165537404369</v>
+        <v>1.309921395215036</v>
       </c>
       <c r="G16">
-        <v>2.747709942772566</v>
+        <v>4.670654976735934</v>
       </c>
       <c r="H16">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I16">
-        <v>19.74234937403852</v>
+        <v>33.55874683892897</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>6.6061301606512</v>
+        <v>11.22933473854114</v>
       </c>
       <c r="C17">
-        <v>3.293922137064845</v>
+        <v>5.599125869500852</v>
       </c>
       <c r="E17">
-        <v>0.3125174510331659</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="F17">
-        <v>1.626857169007589</v>
+        <v>2.765389612120631</v>
       </c>
       <c r="G17">
-        <v>2.747709942772566</v>
+        <v>4.670654976735934</v>
       </c>
       <c r="H17">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I17">
-        <v>14.75514455224614</v>
+        <v>25.08131890583286</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>3.950057209461539</v>
+        <v>6.714447575622538</v>
       </c>
       <c r="C18">
-        <v>2.729249770710871</v>
+        <v>4.639275720443563</v>
       </c>
       <c r="D18">
-        <v>1.849114873705313</v>
+        <v>3.143191154563227</v>
       </c>
       <c r="F18">
-        <v>1.198736861374013</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="G18">
-        <v>4.808492399851992</v>
+        <v>8.173646209287881</v>
       </c>
       <c r="I18">
-        <v>14.53565111510373</v>
+        <v>24.70821616358504</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>4.903519294503984</v>
+        <v>8.335176300772808</v>
       </c>
       <c r="C19">
-        <v>1.788129160120916</v>
+        <v>3.039525472014748</v>
       </c>
       <c r="D19">
-        <v>1.540929061421095</v>
+        <v>2.619325962136021</v>
       </c>
       <c r="E19">
-        <v>1.250069804132663</v>
+        <v>2.124913063439322</v>
       </c>
       <c r="F19">
-        <v>1.198736861374013</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="G19">
-        <v>5.838883628391703</v>
+        <v>9.925141825563855</v>
       </c>
       <c r="I19">
-        <v>16.52026780994437</v>
+        <v>28.08173812759459</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>8.104427722860747</v>
+        <v>13.77619416377727</v>
       </c>
       <c r="C20">
-        <v>1.599905038002925</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="D20">
-        <v>3.08185812284219</v>
+        <v>5.238651924272043</v>
       </c>
       <c r="E20">
-        <v>0.6250349020663317</v>
+        <v>1.062456531719661</v>
       </c>
       <c r="F20">
-        <v>2.054977476641165</v>
+        <v>3.493123720573428</v>
       </c>
       <c r="G20">
-        <v>7.212738599777987</v>
+        <v>12.26046931393182</v>
       </c>
       <c r="I20">
-        <v>22.67894186219134</v>
+        <v>38.55047107660322</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>18.35414513706699</v>
+        <v>31.19902795914266</v>
       </c>
       <c r="C21">
-        <v>1.788129160120916</v>
+        <v>3.039525472014748</v>
       </c>
       <c r="D21">
-        <v>7.088273682537035</v>
+        <v>12.0488994258257</v>
       </c>
       <c r="E21">
-        <v>8.125453726862313</v>
+        <v>13.81193491235559</v>
       </c>
       <c r="F21">
-        <v>5.137443691602911</v>
+        <v>8.732809301433569</v>
       </c>
       <c r="G21">
-        <v>11.33430351393683</v>
+        <v>19.26645177903572</v>
       </c>
       <c r="H21">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I21">
-        <v>51.99575660384377</v>
+        <v>88.38423429288248</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>33.84790401900666</v>
+        <v>57.53586974283451</v>
       </c>
       <c r="C22">
-        <v>1.976353282238907</v>
+        <v>3.359475521700511</v>
       </c>
       <c r="D22">
-        <v>12.63561830365297</v>
+        <v>21.47847288951538</v>
       </c>
       <c r="E22">
-        <v>29.06412294608443</v>
+        <v>49.40422872496426</v>
       </c>
       <c r="F22">
-        <v>8.819278337251665</v>
+        <v>14.99132263412763</v>
       </c>
       <c r="G22">
-        <v>18.54704211371482</v>
+        <v>31.52692109296754</v>
       </c>
       <c r="H22">
-        <v>0.6720307668670789</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="I22">
-        <v>105.5623497688165</v>
+        <v>179.4386323784077</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>47.63905203479909</v>
+        <v>80.97855308875803</v>
       </c>
       <c r="C23">
-        <v>1.223456793766943</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="D23">
-        <v>10.17013180537923</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="E23">
-        <v>22.81377392542111</v>
+        <v>38.77966340776763</v>
       </c>
       <c r="F23">
-        <v>10.18926332167911</v>
+        <v>17.32007178117658</v>
       </c>
       <c r="G23">
-        <v>18.54704211371482</v>
+        <v>31.52692109296754</v>
       </c>
       <c r="H23">
-        <v>1.176053842017388</v>
+        <v>1.999098101521333</v>
       </c>
       <c r="I23">
-        <v>111.7587738367777</v>
+        <v>189.9715341452463</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>58.2292916222348</v>
+        <v>98.98021857167707</v>
       </c>
       <c r="C24">
-        <v>2.635137709651877</v>
+        <v>4.479300695600682</v>
       </c>
       <c r="D24">
-        <v>16.64203386334783</v>
+        <v>28.28872039106904</v>
       </c>
       <c r="E24">
-        <v>12.18818059029347</v>
+        <v>20.71790236853339</v>
       </c>
       <c r="F24">
-        <v>12.24424079832027</v>
+        <v>20.81319550175001</v>
       </c>
       <c r="G24">
-        <v>26.79017194203252</v>
+        <v>45.53888602317533</v>
       </c>
       <c r="H24">
-        <v>1.512069225450927</v>
+        <v>2.570268987670286</v>
       </c>
       <c r="I24">
-        <v>130.2411257513317</v>
+        <v>221.3884925394758</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>43.85925591195228</v>
+        <v>74.55352135691237</v>
       </c>
       <c r="C25">
-        <v>1.69401709906192</v>
+        <v>2.879550447171867</v>
       </c>
       <c r="D25">
-        <v>15.71747642649516</v>
+        <v>26.71712481378742</v>
       </c>
       <c r="E25">
-        <v>25.93894843575277</v>
+        <v>44.09194606636594</v>
       </c>
       <c r="F25">
-        <v>13.87109796732786</v>
+        <v>23.57858511387064</v>
       </c>
       <c r="G25">
-        <v>42.93296785582133</v>
+        <v>72.97898401149895</v>
       </c>
       <c r="H25">
-        <v>3.024138450901854</v>
+        <v>5.140537975340572</v>
       </c>
       <c r="I25">
-        <v>147.0379021473132</v>
+        <v>249.9402497849478</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>37.25312575130111</v>
+        <v>63.32418661837122</v>
       </c>
       <c r="C26">
-        <v>1.599905038002925</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="D26">
-        <v>14.79291898964251</v>
+        <v>25.14552923650581</v>
       </c>
       <c r="E26">
-        <v>12.50069804132664</v>
+        <v>21.24913063439322</v>
       </c>
       <c r="F26">
-        <v>16.43981981312932</v>
+        <v>27.94498976458743</v>
       </c>
       <c r="G26">
-        <v>67.31889359792785</v>
+        <v>114.4310469300304</v>
       </c>
       <c r="H26">
-        <v>1.176053842017388</v>
+        <v>1.999098101521333</v>
       </c>
       <c r="I26">
-        <v>151.0814150733477</v>
+        <v>256.8135567077384</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>44.67650912770295</v>
+        <v>75.94271740704114</v>
       </c>
       <c r="C27">
-        <v>3.858594503418819</v>
+        <v>6.55897601855814</v>
       </c>
       <c r="D27">
-        <v>27.42853729329549</v>
+        <v>46.62400212602119</v>
       </c>
       <c r="E27">
-        <v>5.31279666756382</v>
+        <v>9.030880519617121</v>
       </c>
       <c r="F27">
-        <v>13.35735359816757</v>
+        <v>22.70530418372728</v>
       </c>
       <c r="G27">
-        <v>21.98167954218053</v>
+        <v>37.36523981388747</v>
       </c>
       <c r="H27">
-        <v>2.520115375751545</v>
+        <v>4.283781646117143</v>
       </c>
       <c r="I27">
-        <v>119.1355861080807</v>
+        <v>202.5109017149695</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>48.01362642535149</v>
+        <v>81.61526794506706</v>
       </c>
       <c r="C28">
-        <v>3.952706564477815</v>
+        <v>6.718951043401023</v>
       </c>
       <c r="D28">
-        <v>25.27123660730595</v>
+        <v>42.95694577903075</v>
       </c>
       <c r="E28">
-        <v>4.062726863431156</v>
+        <v>6.905967456177796</v>
       </c>
       <c r="F28">
-        <v>14.29921827496144</v>
+        <v>24.30631922232344</v>
       </c>
       <c r="G28">
-        <v>20.60782457079425</v>
+        <v>35.0299123255195</v>
       </c>
       <c r="H28">
-        <v>2.352107684034776</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="I28">
-        <v>118.5594469903569</v>
+        <v>201.5315599745622</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>47.23042542692377</v>
+        <v>80.28395506369364</v>
       </c>
       <c r="C29">
-        <v>3.576258320241832</v>
+        <v>6.079050944029497</v>
       </c>
       <c r="D29">
-        <v>22.49756429674799</v>
+        <v>38.24215904718593</v>
       </c>
       <c r="E29">
-        <v>5.625314118596985</v>
+        <v>9.56210878547695</v>
       </c>
       <c r="F29">
-        <v>16.8679401207629</v>
+        <v>28.67272387304022</v>
       </c>
       <c r="G29">
-        <v>21.29475205648738</v>
+        <v>36.19757606970347</v>
       </c>
       <c r="H29">
-        <v>2.352107684034776</v>
+        <v>3.998196203042667</v>
       </c>
       <c r="I29">
-        <v>119.4443620237956</v>
+        <v>203.0357699861723</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>48.76277520645627</v>
+        <v>82.88869765768513</v>
       </c>
       <c r="C30">
-        <v>3.858594503418819</v>
+        <v>6.55897601855814</v>
       </c>
       <c r="D30">
-        <v>28.35309473014814</v>
+        <v>48.19559770330282</v>
       </c>
       <c r="E30">
-        <v>5.625314118596985</v>
+        <v>9.56210878547695</v>
       </c>
       <c r="F30">
-        <v>14.72733858259501</v>
+        <v>25.03405333077623</v>
       </c>
       <c r="G30">
-        <v>17.17318714232854</v>
+        <v>29.19159360459958</v>
       </c>
       <c r="H30">
-        <v>1.680076917167697</v>
+        <v>2.855854430744762</v>
       </c>
       <c r="I30">
-        <v>120.1803812007115</v>
+        <v>204.2868815311436</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>49.92055059543636</v>
+        <v>84.85672539536759</v>
       </c>
       <c r="C31">
-        <v>3.482146259182837</v>
+        <v>5.919075919186615</v>
       </c>
       <c r="D31">
-        <v>31.12676704070611</v>
+        <v>52.91038443514766</v>
       </c>
       <c r="E31">
-        <v>8.750488628928645</v>
+        <v>14.87439144407526</v>
       </c>
       <c r="F31">
-        <v>12.58673704442714</v>
+        <v>21.39538278851225</v>
       </c>
       <c r="G31">
-        <v>14.42547719955597</v>
+        <v>24.52093862786365</v>
       </c>
       <c r="H31">
-        <v>2.520115375751545</v>
+        <v>4.283781646117143</v>
       </c>
       <c r="I31">
-        <v>122.8122821439886</v>
+        <v>208.7606802562701</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>55.06243541120098</v>
+        <v>93.59708387742796</v>
       </c>
       <c r="C32">
-        <v>3.764482442359823</v>
+        <v>6.399000993715261</v>
       </c>
       <c r="D32">
-        <v>27.12035148101126</v>
+        <v>46.100136933594</v>
       </c>
       <c r="E32">
-        <v>10.62559333512764</v>
+        <v>18.06176103923424</v>
       </c>
       <c r="F32">
-        <v>12.4154889213737</v>
+        <v>21.10428914513113</v>
       </c>
       <c r="G32">
-        <v>9.273521056857412</v>
+        <v>15.76346054648377</v>
       </c>
       <c r="H32">
-        <v>4.368199984636012</v>
+        <v>7.425221519936382</v>
       </c>
       <c r="I32">
-        <v>122.6300726325668</v>
+        <v>208.4509540555227</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>61.12373009468506</v>
+        <v>103.9002879158833</v>
       </c>
       <c r="C33">
-        <v>2.446913587533886</v>
+        <v>4.159350645914919</v>
       </c>
       <c r="D33">
-        <v>20.95663523532689</v>
+        <v>35.6228330850499</v>
       </c>
       <c r="E33">
-        <v>16.25090745372463</v>
+        <v>27.62386982471118</v>
       </c>
       <c r="F33">
-        <v>12.07299267526684</v>
+        <v>20.52210185836888</v>
       </c>
       <c r="G33">
-        <v>7.89966608547113</v>
+        <v>13.42813305811581</v>
       </c>
       <c r="H33">
-        <v>1.176053842017388</v>
+        <v>1.999098101521333</v>
       </c>
       <c r="I33">
-        <v>121.9268989740258</v>
+        <v>207.2556744895653</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>59.35301479389197</v>
+        <v>100.8903631406042</v>
       </c>
       <c r="C34">
-        <v>1.599905038002925</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="D34">
-        <v>17.25840548791626</v>
+        <v>29.33645077592344</v>
       </c>
       <c r="E34">
-        <v>21.87622157232161</v>
+        <v>37.18597861018814</v>
       </c>
       <c r="F34">
-        <v>6.507428676030354</v>
+        <v>11.06155844848252</v>
       </c>
       <c r="G34">
-        <v>6.869274856931413</v>
+        <v>11.67663744183983</v>
       </c>
       <c r="H34">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I34">
-        <v>113.6322581168113</v>
+        <v>193.1561492824416</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>41.85017508989858</v>
+        <v>71.13841440034571</v>
       </c>
       <c r="C35">
-        <v>1.411680915884934</v>
+        <v>2.399625372643222</v>
       </c>
       <c r="D35">
-        <v>15.10110480192673</v>
+        <v>25.66939442893302</v>
       </c>
       <c r="E35">
-        <v>16.87594235579096</v>
+        <v>28.68632635643085</v>
       </c>
       <c r="F35">
-        <v>3.339338399541893</v>
+        <v>5.67632604593182</v>
       </c>
       <c r="G35">
-        <v>4.121564914158848</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="H35">
-        <v>0.5040230751503091</v>
+        <v>0.8567563292234285</v>
       </c>
       <c r="I35">
-        <v>83.20382955235225</v>
+        <v>141.432825398612</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>35.48241045050799</v>
+        <v>60.31426184309213</v>
       </c>
       <c r="C36">
-        <v>2.917473892828863</v>
+        <v>4.959225770129326</v>
       </c>
       <c r="D36">
-        <v>10.17013180537923</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="E36">
-        <v>14.37580274752563</v>
+        <v>24.43650022955221</v>
       </c>
       <c r="F36">
-        <v>3.168090276488463</v>
+        <v>5.385232402550701</v>
       </c>
       <c r="G36">
-        <v>6.525811114084845</v>
+        <v>11.09280556974784</v>
       </c>
       <c r="H36">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I36">
-        <v>72.80772797853179</v>
+        <v>123.7611626082444</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>28.46765368198146</v>
+        <v>48.3903290794866</v>
       </c>
       <c r="C37">
-        <v>2.164577404356899</v>
+        <v>3.679425571386274</v>
       </c>
       <c r="D37">
-        <v>8.012831119389693</v>
+        <v>13.62049500310732</v>
       </c>
       <c r="E37">
-        <v>12.18818059029347</v>
+        <v>20.71790236853339</v>
       </c>
       <c r="F37">
-        <v>1.798105292061019</v>
+        <v>3.05648325550175</v>
       </c>
       <c r="G37">
-        <v>4.121564914158848</v>
+        <v>7.005982465103898</v>
       </c>
       <c r="H37">
-        <v>0.3360153834335394</v>
+        <v>0.5711708861489524</v>
       </c>
       <c r="I37">
-        <v>57.08892838567493</v>
+        <v>97.04178862926817</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>21.58910578274669</v>
+        <v>36.69792899090249</v>
       </c>
       <c r="C38">
-        <v>2.446913587533886</v>
+        <v>4.159350645914919</v>
       </c>
       <c r="D38">
-        <v>6.780087870252815</v>
+        <v>11.5250342333985</v>
       </c>
       <c r="E38">
-        <v>4.062726863431156</v>
+        <v>6.905967456177796</v>
       </c>
       <c r="F38">
-        <v>1.198736861374013</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="G38">
-        <v>2.747709942772566</v>
+        <v>4.670654976735934</v>
       </c>
       <c r="H38">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I38">
-        <v>38.9932885998279</v>
+        <v>66.28217724987196</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>13.5187302772089</v>
+        <v>22.97961799588058</v>
       </c>
       <c r="C39">
-        <v>1.599905038002925</v>
+        <v>2.719575422328985</v>
       </c>
       <c r="D39">
-        <v>5.239158808831721</v>
+        <v>8.905708271262474</v>
       </c>
       <c r="E39">
-        <v>2.812657059298493</v>
+        <v>4.781054392738475</v>
       </c>
       <c r="F39">
-        <v>1.883729353587734</v>
+        <v>3.202030077192309</v>
       </c>
       <c r="G39">
-        <v>4.46502865700542</v>
+        <v>7.589814337195892</v>
       </c>
       <c r="H39">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I39">
-        <v>29.68721688565196</v>
+        <v>50.46338593967319</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>10.14756076223741</v>
+        <v>17.24918428909928</v>
       </c>
       <c r="C40">
-        <v>2.258689465415894</v>
+        <v>3.839400596229156</v>
       </c>
       <c r="D40">
-        <v>2.773672310557971</v>
+        <v>4.714786731844839</v>
       </c>
       <c r="E40">
-        <v>0.9375523530994976</v>
+        <v>1.593684797579491</v>
       </c>
       <c r="F40">
-        <v>0.7706165537404369</v>
+        <v>1.309921395215036</v>
       </c>
       <c r="G40">
-        <v>3.091173685619135</v>
+        <v>5.254486848827923</v>
       </c>
       <c r="H40">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I40">
-        <v>20.14727282238712</v>
+        <v>34.2470501018702</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>6.469921291359421</v>
+        <v>10.99780206351967</v>
       </c>
       <c r="C41">
-        <v>2.541025648592881</v>
+        <v>4.3193256707578</v>
       </c>
       <c r="E41">
-        <v>0.3125174510331659</v>
+        <v>0.5312282658598305</v>
       </c>
       <c r="F41">
-        <v>1.626857169007589</v>
+        <v>2.765389612120631</v>
       </c>
       <c r="G41">
-        <v>3.091173685619135</v>
+        <v>5.254486848827923</v>
       </c>
       <c r="H41">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I41">
-        <v>14.20950293732896</v>
+        <v>24.15381790416034</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>3.881952774815653</v>
+        <v>6.598681238111804</v>
       </c>
       <c r="C42">
-        <v>2.070465343297903</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="D42">
-        <v>2.773672310557971</v>
+        <v>4.714786731844839</v>
       </c>
       <c r="F42">
-        <v>1.198736861374013</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="G42">
-        <v>5.151956142698562</v>
+        <v>8.757478081379874</v>
       </c>
       <c r="I42">
-        <v>15.0767834327441</v>
+        <v>25.62805210154774</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>4.801362642535147</v>
+        <v>8.161526794506704</v>
       </c>
       <c r="C43">
-        <v>1.411680915884934</v>
+        <v>2.399625372643222</v>
       </c>
       <c r="D43">
-        <v>2.157300685989533</v>
+        <v>3.66705634699043</v>
       </c>
       <c r="E43">
-        <v>1.250069804132663</v>
+        <v>2.124913063439322</v>
       </c>
       <c r="F43">
-        <v>1.198736861374013</v>
+        <v>2.037655503667833</v>
       </c>
       <c r="G43">
-        <v>6.525811114084845</v>
+        <v>11.09280556974784</v>
       </c>
       <c r="I43">
-        <v>17.34496202400113</v>
+        <v>29.48358265099535</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>7.934166636246027</v>
+        <v>13.48677832000045</v>
       </c>
       <c r="C44">
-        <v>1.223456793766943</v>
+        <v>2.079675322957459</v>
       </c>
       <c r="D44">
-        <v>4.314601371979065</v>
+        <v>7.334112693980861</v>
       </c>
       <c r="E44">
-        <v>0.6250349020663317</v>
+        <v>1.062456531719661</v>
       </c>
       <c r="F44">
-        <v>1.96935341511445</v>
+        <v>3.347576898882868</v>
       </c>
       <c r="G44">
-        <v>7.89966608547113</v>
+        <v>13.42813305811581</v>
       </c>
       <c r="I44">
-        <v>23.96627920464395</v>
+        <v>40.7387328256571</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>17.9795707465146</v>
+        <v>30.56231310283363</v>
       </c>
       <c r="C45">
-        <v>1.411680915884934</v>
+        <v>2.399625372643222</v>
       </c>
       <c r="D45">
-        <v>10.17013180537923</v>
+        <v>17.28755135009775</v>
       </c>
       <c r="E45">
-        <v>7.812936275829149</v>
+        <v>13.28070664649576</v>
       </c>
       <c r="F45">
-        <v>4.966195568549482</v>
+        <v>8.44171565805245</v>
       </c>
       <c r="G45">
-        <v>12.36469474247654</v>
+        <v>21.01794739531169</v>
       </c>
       <c r="H45">
-        <v>0.1680076917167697</v>
+        <v>0.2855854430744762</v>
       </c>
       <c r="I45">
-        <v>54.8732177463507</v>
+        <v>93.27544496850898</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>33.16685967254777</v>
+        <v>56.37820636772719</v>
       </c>
       <c r="C46">
-        <v>1.505792976943929</v>
+        <v>2.559600397486104</v>
       </c>
       <c r="D46">
-        <v>18.18296292476892</v>
+        <v>30.90804635320506</v>
       </c>
       <c r="E46">
-        <v>28.12657059298493</v>
+        <v>47.81054392738476</v>
       </c>
       <c r="F46">
-        <v>8.562406152671519</v>
+        <v>14.55468216905595</v>
       </c>
       <c r="G46">
-        <v>20.26436082794768</v>
+        <v>34.4460804534275</v>
       </c>
       <c r="H46">
-        <v>0.6720307668670789</v>
+        <v>1.142341772297905</v>
       </c>
       <c r="I46">
-        <v>110.4809839147318</v>
+        <v>187.7995014405844</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>46.68558994975668</v>
+        <v>79.35782436360773</v>
       </c>
       <c r="C47">
-        <v>0.9411206105899557</v>
+        <v>1.599750248428815</v>
       </c>
       <c r="D47">
-        <v>14.79291898964251</v>
+        <v>25.14552923650581</v>
       </c>
       <c r="E47">
-        <v>22.18873902335478</v>
+        <v>37.71720687604797</v>
       </c>
       <c r="F47">
-        <v>9.932391137098964</v>
+        <v>16.8834313161049</v>
       </c>
       <c r="G47">
-        <v>20.26436082794768</v>
+        <v>34.4460804534275</v>
       </c>
       <c r="H47">
-        <v>1.344061533734158</v>
+        <v>2.28468354459581</v>
       </c>
       <c r="I47">
-        <v>116.1491820721247</v>
+        <v>197.4345060387186</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>57.07151623325471</v>
+        <v>97.01219083399459</v>
       </c>
       <c r="C48">
-        <v>2.070465343297903</v>
+        <v>3.519450546543392</v>
       </c>
       <c r="D48">
-        <v>24.03849335816908</v>
+        <v>40.86148500932193</v>
       </c>
       <c r="E48">
-        <v>11.8756631392603</v>
+        <v>20.18667410267356</v>
       </c>
       <c r="F48">
-        <v>11.90174455221341</v>
+        <v>20.23100821498777</v>
       </c>
       <c r="G48">
-        <v>29.19441814195851</v>
+        <v>49.6257091278193</v>
       </c>
       <c r="H48">
-        <v>1.680076917167697</v>
+        <v>2.855854430744762</v>
       </c>
       <c r="I48">
-        <v>137.8323776853216</v>
+        <v>234.2923722660853</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>42.9738982615557</v>
+        <v>73.04855896927273</v>
       </c>
       <c r="C49">
-        <v>1.317568854825939</v>
+        <v>2.239650347800341</v>
       </c>
       <c r="D49">
-        <v>22.49756429674799</v>
+        <v>38.24215904718593</v>
       </c>
       <c r="E49">
-        <v>25.31391353368644</v>
+        <v>43.02948953464629</v>
       </c>
       <c r="F49">
-        <v>13.528601721221</v>
+        <v>22.9963978271084</v>
       </c>
       <c r="G49">
-        <v>46.71106902713363</v>
+        <v>79.40113460451084</v>
       </c>
       <c r="H49">
-        <v>3.360153834335394</v>
+        <v>5.711708861489523</v>
       </c>
       <c r="I49">
-        <v>155.7027695295061</v>
+        <v>264.6690991920141</v>
       </c>
     </row>
   </sheetData>
